--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK331"/>
+  <dimension ref="A1:BK332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4760,7 +4760,7 @@
         <v>2.38</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT25" t="n">
         <v>1.63</v>
@@ -6790,7 +6790,7 @@
         <v>1.63</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU31" t="n">
         <v>1.15</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT37" t="n">
         <v>0.9399999999999999</v>
@@ -10444,7 +10444,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU49" t="n">
         <v>1.68</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT58" t="n">
         <v>1.06</v>
@@ -13489,7 +13489,7 @@
         <v>1.53</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU64" t="n">
         <v>1.93</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT79" t="n">
         <v>0.63</v>
@@ -17549,7 +17549,7 @@
         <v>1.94</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU84" t="n">
         <v>2.07</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT94" t="n">
         <v>0.82</v>
@@ -22827,7 +22827,7 @@
         <v>2.12</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU110" t="n">
         <v>1.87</v>
@@ -25057,7 +25057,7 @@
         <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT121" t="n">
         <v>1.75</v>
@@ -26887,7 +26887,7 @@
         <v>1.81</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU130" t="n">
         <v>1.51</v>
@@ -27696,7 +27696,7 @@
         <v>1.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT134" t="n">
         <v>1</v>
@@ -31959,7 +31959,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT155" t="n">
         <v>1.71</v>
@@ -32368,7 +32368,7 @@
         <v>1.59</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU157" t="n">
         <v>1.15</v>
@@ -35413,7 +35413,7 @@
         <v>1.63</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU172" t="n">
         <v>1.55</v>
@@ -35613,7 +35613,7 @@
         <v>2</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT173" t="n">
         <v>1.94</v>
@@ -39470,7 +39470,7 @@
         <v>1</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT192" t="n">
         <v>0.9399999999999999</v>
@@ -40691,7 +40691,7 @@
         <v>1.53</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU198" t="n">
         <v>1.43</v>
@@ -42109,7 +42109,7 @@
         <v>1.1</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT205" t="n">
         <v>0.82</v>
@@ -46172,7 +46172,7 @@
         <v>1.25</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU225" t="n">
         <v>1.56</v>
@@ -47793,7 +47793,7 @@
         <v>1.17</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT233" t="n">
         <v>1.18</v>
@@ -49826,7 +49826,7 @@
         <v>0.82</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU243" t="n">
         <v>1.46</v>
@@ -52462,7 +52462,7 @@
         <v>1.23</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT256" t="n">
         <v>1.12</v>
@@ -54292,7 +54292,7 @@
         <v>1.19</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU265" t="n">
         <v>1.76</v>
@@ -55913,7 +55913,7 @@
         <v>1.15</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT273" t="n">
         <v>1.29</v>
@@ -58758,7 +58758,7 @@
         <v>1.18</v>
       </c>
       <c r="AT287" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU287" t="n">
         <v>1.5</v>
@@ -61191,7 +61191,7 @@
         <v>0.79</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT299" t="n">
         <v>0.9399999999999999</v>
@@ -62615,7 +62615,7 @@
         <v>1.18</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU306" t="n">
         <v>1.49</v>
@@ -64642,7 +64642,7 @@
         <v>1.27</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT316" t="n">
         <v>1.19</v>
@@ -67284,7 +67284,7 @@
         <v>1.06</v>
       </c>
       <c r="AT329" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU329" t="n">
         <v>1.53</v>
@@ -67742,6 +67742,209 @@
       </c>
       <c r="BK331" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2982742</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>45037.64583333334</v>
+      </c>
+      <c r="F332" t="n">
+        <v>34</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>1</v>
+      </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="n">
+        <v>2</v>
+      </c>
+      <c r="N332" t="n">
+        <v>3</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>['11', '72']</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>7</v>
+      </c>
+      <c r="R332" t="n">
+        <v>9</v>
+      </c>
+      <c r="S332" t="n">
+        <v>16</v>
+      </c>
+      <c r="T332" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U332" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V332" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X332" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK332"/>
+  <dimension ref="A1:BK339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT2" t="n">
         <v>1.94</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT3" t="n">
         <v>1.18</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT5" t="n">
         <v>0.82</v>
@@ -1918,7 +1918,7 @@
         <v>1.18</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.18</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0.82</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT11" t="n">
         <v>1.71</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT15" t="n">
         <v>1.29</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT21" t="n">
         <v>0.88</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU22" t="n">
         <v>1.62</v>
@@ -5166,7 +5166,7 @@
         <v>1.06</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU23" t="n">
         <v>1.87</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT24" t="n">
         <v>0.82</v>
@@ -5572,7 +5572,7 @@
         <v>1.53</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.63</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU26" t="n">
         <v>1.77</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT27" t="n">
         <v>1.94</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT28" t="n">
         <v>1.19</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT31" t="n">
         <v>0.88</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT36" t="n">
         <v>0.88</v>
@@ -8211,7 +8211,7 @@
         <v>1.81</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU38" t="n">
         <v>1.37</v>
@@ -9020,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU42" t="n">
         <v>1.67</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT45" t="n">
         <v>0.82</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT46" t="n">
         <v>1.71</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU47" t="n">
         <v>1.49</v>
@@ -10241,7 +10241,7 @@
         <v>0.82</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU48" t="n">
         <v>1.53</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT49" t="n">
         <v>0.88</v>
@@ -10644,10 +10644,10 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU50" t="n">
         <v>1.82</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT55" t="n">
         <v>0.9399999999999999</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT56" t="n">
         <v>0.9399999999999999</v>
@@ -12474,7 +12474,7 @@
         <v>1.53</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU59" t="n">
         <v>1.11</v>
@@ -13283,10 +13283,10 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU63" t="n">
         <v>1.59</v>
@@ -13692,7 +13692,7 @@
         <v>1.06</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU65" t="n">
         <v>1.76</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT67" t="n">
         <v>0.82</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT68" t="n">
         <v>1.35</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT69" t="n">
         <v>1.71</v>
@@ -14704,7 +14704,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT70" t="n">
         <v>1.18</v>
@@ -14910,7 +14910,7 @@
         <v>0.82</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU71" t="n">
         <v>1.68</v>
@@ -15113,7 +15113,7 @@
         <v>2.12</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU72" t="n">
         <v>1.83</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT78" t="n">
         <v>0.9399999999999999</v>
@@ -16534,7 +16534,7 @@
         <v>1.53</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT80" t="n">
         <v>0.82</v>
@@ -17749,7 +17749,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT85" t="n">
         <v>0.9399999999999999</v>
@@ -17955,7 +17955,7 @@
         <v>1.59</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU86" t="n">
         <v>1.17</v>
@@ -18155,7 +18155,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT87" t="n">
         <v>0.88</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT88" t="n">
         <v>1.18</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT89" t="n">
         <v>1.35</v>
@@ -18767,7 +18767,7 @@
         <v>1.53</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU90" t="n">
         <v>1.88</v>
@@ -18967,10 +18967,10 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU91" t="n">
         <v>1.73</v>
@@ -19173,7 +19173,7 @@
         <v>1.06</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU92" t="n">
         <v>1.57</v>
@@ -19982,7 +19982,7 @@
         <v>1.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20185,7 +20185,7 @@
         <v>2.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT97" t="n">
         <v>1.94</v>
@@ -20391,7 +20391,7 @@
         <v>1.81</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU98" t="n">
         <v>1.51</v>
@@ -20591,7 +20591,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT99" t="n">
         <v>1.06</v>
@@ -21000,7 +21000,7 @@
         <v>1.18</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -21406,7 +21406,7 @@
         <v>1.18</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU103" t="n">
         <v>1.57</v>
@@ -21609,7 +21609,7 @@
         <v>1.06</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU104" t="n">
         <v>1.53</v>
@@ -21809,7 +21809,7 @@
         <v>0.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT105" t="n">
         <v>0.88</v>
@@ -22012,7 +22012,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT106" t="n">
         <v>0.9399999999999999</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT111" t="n">
         <v>1.06</v>
@@ -23233,7 +23233,7 @@
         <v>1.53</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -23639,7 +23639,7 @@
         <v>1.63</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU114" t="n">
         <v>1.61</v>
@@ -23839,7 +23839,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT115" t="n">
         <v>1.12</v>
@@ -24045,7 +24045,7 @@
         <v>1.18</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU116" t="n">
         <v>1.45</v>
@@ -24448,7 +24448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT118" t="n">
         <v>0.82</v>
@@ -24651,7 +24651,7 @@
         <v>1.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT119" t="n">
         <v>1.29</v>
@@ -24854,7 +24854,7 @@
         <v>1.6</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT120" t="n">
         <v>1.19</v>
@@ -25060,7 +25060,7 @@
         <v>1.53</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU121" t="n">
         <v>2.12</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT125" t="n">
         <v>1.06</v>
@@ -26072,7 +26072,7 @@
         <v>0.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT126" t="n">
         <v>0.82</v>
@@ -26684,7 +26684,7 @@
         <v>1.53</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU129" t="n">
         <v>1.93</v>
@@ -27290,7 +27290,7 @@
         <v>0.67</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT132" t="n">
         <v>1.12</v>
@@ -27899,10 +27899,10 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU135" t="n">
         <v>1.92</v>
@@ -28102,10 +28102,10 @@
         <v>0.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -28305,10 +28305,10 @@
         <v>2.14</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -28711,7 +28711,7 @@
         <v>2</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT139" t="n">
         <v>1.94</v>
@@ -28917,7 +28917,7 @@
         <v>1.53</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU140" t="n">
         <v>1.32</v>
@@ -29117,7 +29117,7 @@
         <v>1.33</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT141" t="n">
         <v>1.19</v>
@@ -31353,7 +31353,7 @@
         <v>1.81</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU152" t="n">
         <v>1.46</v>
@@ -31553,7 +31553,7 @@
         <v>1.29</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT153" t="n">
         <v>1</v>
@@ -31756,7 +31756,7 @@
         <v>0.71</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT154" t="n">
         <v>0.9399999999999999</v>
@@ -32165,7 +32165,7 @@
         <v>2.12</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU156" t="n">
         <v>1.75</v>
@@ -32568,7 +32568,7 @@
         <v>1.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT158" t="n">
         <v>1.94</v>
@@ -32771,7 +32771,7 @@
         <v>1.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT159" t="n">
         <v>1.19</v>
@@ -32977,7 +32977,7 @@
         <v>1.63</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU160" t="n">
         <v>1.64</v>
@@ -33177,7 +33177,7 @@
         <v>0.43</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT161" t="n">
         <v>0.88</v>
@@ -33586,7 +33586,7 @@
         <v>1.18</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU163" t="n">
         <v>1.56</v>
@@ -33989,7 +33989,7 @@
         <v>1.63</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT165" t="n">
         <v>1.35</v>
@@ -34601,7 +34601,7 @@
         <v>1.18</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU168" t="n">
         <v>1.37</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT170" t="n">
         <v>1.18</v>
@@ -36019,10 +36019,10 @@
         <v>1.38</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU175" t="n">
         <v>1.88</v>
@@ -36225,7 +36225,7 @@
         <v>1.59</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU176" t="n">
         <v>1.19</v>
@@ -36425,7 +36425,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT177" t="n">
         <v>1</v>
@@ -36628,7 +36628,7 @@
         <v>0.75</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT178" t="n">
         <v>0.9399999999999999</v>
@@ -36831,10 +36831,10 @@
         <v>0.88</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU179" t="n">
         <v>1.61</v>
@@ -37237,7 +37237,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT181" t="n">
         <v>1.19</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT183" t="n">
         <v>1.06</v>
@@ -38864,7 +38864,7 @@
         <v>1.94</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU189" t="n">
         <v>1.83</v>
@@ -39064,7 +39064,7 @@
         <v>1.22</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT190" t="n">
         <v>0.82</v>
@@ -39270,7 +39270,7 @@
         <v>1.53</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU191" t="n">
         <v>1.92</v>
@@ -39876,7 +39876,7 @@
         <v>1</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT194" t="n">
         <v>0.9399999999999999</v>
@@ -40485,7 +40485,7 @@
         <v>1.3</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT197" t="n">
         <v>1.12</v>
@@ -40894,7 +40894,7 @@
         <v>1.81</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU199" t="n">
         <v>1.6</v>
@@ -41500,7 +41500,7 @@
         <v>1.9</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT202" t="n">
         <v>1.94</v>
@@ -41706,7 +41706,7 @@
         <v>0.82</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU203" t="n">
         <v>1.46</v>
@@ -41909,7 +41909,7 @@
         <v>1.06</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU204" t="n">
         <v>1.54</v>
@@ -42312,7 +42312,7 @@
         <v>1.2</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT206" t="n">
         <v>1.18</v>
@@ -42515,10 +42515,10 @@
         <v>0.6</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU207" t="n">
         <v>1.59</v>
@@ -42718,7 +42718,7 @@
         <v>0.8</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT208" t="n">
         <v>0.82</v>
@@ -42924,7 +42924,7 @@
         <v>1.18</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU209" t="n">
         <v>1.55</v>
@@ -43124,10 +43124,10 @@
         <v>0.78</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU210" t="n">
         <v>1.87</v>
@@ -45357,7 +45357,7 @@
         <v>1.4</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT221" t="n">
         <v>1</v>
@@ -45560,10 +45560,10 @@
         <v>0.8</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU222" t="n">
         <v>1.66</v>
@@ -45969,7 +45969,7 @@
         <v>1.63</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU224" t="n">
         <v>1.44</v>
@@ -46169,7 +46169,7 @@
         <v>0.9</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT225" t="n">
         <v>0.88</v>
@@ -46575,10 +46575,10 @@
         <v>1.45</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU227" t="n">
         <v>1.78</v>
@@ -46981,7 +46981,7 @@
         <v>1.73</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT229" t="n">
         <v>1.71</v>
@@ -47184,7 +47184,7 @@
         <v>1.73</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT230" t="n">
         <v>1.35</v>
@@ -47387,10 +47387,10 @@
         <v>2</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU231" t="n">
         <v>1.74</v>
@@ -48808,7 +48808,7 @@
         <v>1.08</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT238" t="n">
         <v>1.06</v>
@@ -49420,7 +49420,7 @@
         <v>1.53</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU241" t="n">
         <v>1.82</v>
@@ -50026,7 +50026,7 @@
         <v>1.58</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT244" t="n">
         <v>1.35</v>
@@ -50232,7 +50232,7 @@
         <v>1.59</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU245" t="n">
         <v>1.31</v>
@@ -50635,7 +50635,7 @@
         <v>1.83</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT247" t="n">
         <v>1.71</v>
@@ -50838,10 +50838,10 @@
         <v>1.33</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU248" t="n">
         <v>1.72</v>
@@ -51044,7 +51044,7 @@
         <v>1.53</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU249" t="n">
         <v>1.82</v>
@@ -51244,7 +51244,7 @@
         <v>1</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT250" t="n">
         <v>0.82</v>
@@ -51447,10 +51447,10 @@
         <v>1.83</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU251" t="n">
         <v>1.66</v>
@@ -51650,7 +51650,7 @@
         <v>1</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT252" t="n">
         <v>1.29</v>
@@ -52262,7 +52262,7 @@
         <v>1.18</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU255" t="n">
         <v>1.52</v>
@@ -52868,10 +52868,10 @@
         <v>0.5</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU258" t="n">
         <v>1.66</v>
@@ -53680,7 +53680,7 @@
         <v>0.92</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT262" t="n">
         <v>0.82</v>
@@ -54086,7 +54086,7 @@
         <v>1.31</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT264" t="n">
         <v>1.18</v>
@@ -54289,7 +54289,7 @@
         <v>0.75</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT265" t="n">
         <v>0.88</v>
@@ -54495,7 +54495,7 @@
         <v>0.82</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU266" t="n">
         <v>1.43</v>
@@ -54695,10 +54695,10 @@
         <v>1.46</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU267" t="n">
         <v>1.58</v>
@@ -55101,7 +55101,7 @@
         <v>0.92</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT269" t="n">
         <v>0.88</v>
@@ -55510,7 +55510,7 @@
         <v>1.94</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU271" t="n">
         <v>1.83</v>
@@ -56322,7 +56322,7 @@
         <v>1.18</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU275" t="n">
         <v>1.35</v>
@@ -56522,7 +56522,7 @@
         <v>1.14</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT276" t="n">
         <v>1.12</v>
@@ -57131,7 +57131,7 @@
         <v>1.23</v>
       </c>
       <c r="AS279" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT279" t="n">
         <v>1.19</v>
@@ -57540,7 +57540,7 @@
         <v>2.12</v>
       </c>
       <c r="AT281" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU281" t="n">
         <v>1.75</v>
@@ -57743,7 +57743,7 @@
         <v>1.94</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU282" t="n">
         <v>1.73</v>
@@ -58146,7 +58146,7 @@
         <v>1.07</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT284" t="n">
         <v>0.9399999999999999</v>
@@ -58349,7 +58349,7 @@
         <v>1.43</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT285" t="n">
         <v>1.18</v>
@@ -58552,10 +58552,10 @@
         <v>1.85</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU286" t="n">
         <v>1.66</v>
@@ -59567,7 +59567,7 @@
         <v>1.07</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT291" t="n">
         <v>1.12</v>
@@ -60176,10 +60176,10 @@
         <v>0.43</v>
       </c>
       <c r="AS294" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT294" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU294" t="n">
         <v>1.84</v>
@@ -60382,7 +60382,7 @@
         <v>1.18</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU295" t="n">
         <v>1.37</v>
@@ -60582,7 +60582,7 @@
         <v>0.73</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT296" t="n">
         <v>0.82</v>
@@ -60988,7 +60988,7 @@
         <v>1.29</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT298" t="n">
         <v>1.29</v>
@@ -61194,7 +61194,7 @@
         <v>1.53</v>
       </c>
       <c r="AT299" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU299" t="n">
         <v>1.79</v>
@@ -62409,7 +62409,7 @@
         <v>1.07</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT305" t="n">
         <v>0.9399999999999999</v>
@@ -62818,7 +62818,7 @@
         <v>1.94</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU307" t="n">
         <v>1.76</v>
@@ -63221,7 +63221,7 @@
         <v>1.8</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT309" t="n">
         <v>1.71</v>
@@ -63424,7 +63424,7 @@
         <v>1.07</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT310" t="n">
         <v>1.06</v>
@@ -63627,7 +63627,7 @@
         <v>1.27</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT311" t="n">
         <v>1.35</v>
@@ -64236,7 +64236,7 @@
         <v>1</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT314" t="n">
         <v>1.12</v>
@@ -64439,10 +64439,10 @@
         <v>1.47</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT315" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU315" t="n">
         <v>1.81</v>
@@ -64845,7 +64845,7 @@
         <v>1.2</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT317" t="n">
         <v>1.29</v>
@@ -65251,10 +65251,10 @@
         <v>1.8</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU319" t="n">
         <v>1.62</v>
@@ -65457,7 +65457,7 @@
         <v>1.63</v>
       </c>
       <c r="AT320" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU320" t="n">
         <v>1.56</v>
@@ -65657,10 +65657,10 @@
         <v>0.6</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT321" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AU321" t="n">
         <v>1.6</v>
@@ -65860,7 +65860,7 @@
         <v>1.31</v>
       </c>
       <c r="AS322" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT322" t="n">
         <v>1.29</v>
@@ -66269,7 +66269,7 @@
         <v>1.18</v>
       </c>
       <c r="AT324" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AU324" t="n">
         <v>1.51</v>
@@ -67945,6 +67945,1427 @@
       </c>
       <c r="BK332" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2982740</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>45038.375</v>
+      </c>
+      <c r="F333" t="n">
+        <v>34</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" t="n">
+        <v>0</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>3</v>
+      </c>
+      <c r="R333" t="n">
+        <v>4</v>
+      </c>
+      <c r="S333" t="n">
+        <v>7</v>
+      </c>
+      <c r="T333" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U333" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V333" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X333" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2982739</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>45038.375</v>
+      </c>
+      <c r="F334" t="n">
+        <v>34</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>1</v>
+      </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="n">
+        <v>2</v>
+      </c>
+      <c r="M334" t="n">
+        <v>1</v>
+      </c>
+      <c r="N334" t="n">
+        <v>3</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>['62', '77']</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>3</v>
+      </c>
+      <c r="R334" t="n">
+        <v>5</v>
+      </c>
+      <c r="S334" t="n">
+        <v>8</v>
+      </c>
+      <c r="T334" t="n">
+        <v>3</v>
+      </c>
+      <c r="U334" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V334" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X334" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2982734</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>45038.375</v>
+      </c>
+      <c r="F335" t="n">
+        <v>34</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>1</v>
+      </c>
+      <c r="N335" t="n">
+        <v>1</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>5</v>
+      </c>
+      <c r="R335" t="n">
+        <v>5</v>
+      </c>
+      <c r="S335" t="n">
+        <v>10</v>
+      </c>
+      <c r="T335" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U335" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V335" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X335" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2982736</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>45038.375</v>
+      </c>
+      <c r="F336" t="n">
+        <v>34</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>0</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>10</v>
+      </c>
+      <c r="R336" t="n">
+        <v>2</v>
+      </c>
+      <c r="S336" t="n">
+        <v>12</v>
+      </c>
+      <c r="T336" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V336" t="n">
+        <v>6</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X336" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2982735</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>45038.375</v>
+      </c>
+      <c r="F337" t="n">
+        <v>34</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="n">
+        <v>1</v>
+      </c>
+      <c r="N337" t="n">
+        <v>2</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>6</v>
+      </c>
+      <c r="R337" t="n">
+        <v>2</v>
+      </c>
+      <c r="S337" t="n">
+        <v>8</v>
+      </c>
+      <c r="T337" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2</v>
+      </c>
+      <c r="V337" t="n">
+        <v>4</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X337" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK337" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2982737</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>45038.375</v>
+      </c>
+      <c r="F338" t="n">
+        <v>34</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>0</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>9</v>
+      </c>
+      <c r="R338" t="n">
+        <v>4</v>
+      </c>
+      <c r="S338" t="n">
+        <v>13</v>
+      </c>
+      <c r="T338" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U338" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V338" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X338" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK338" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2982738</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>45038.46875</v>
+      </c>
+      <c r="F339" t="n">
+        <v>34</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>1</v>
+      </c>
+      <c r="J339" t="n">
+        <v>1</v>
+      </c>
+      <c r="K339" t="n">
+        <v>2</v>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="n">
+        <v>1</v>
+      </c>
+      <c r="N339" t="n">
+        <v>2</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q339" t="n">
+        <v>7</v>
+      </c>
+      <c r="R339" t="n">
+        <v>11</v>
+      </c>
+      <c r="S339" t="n">
+        <v>18</v>
+      </c>
+      <c r="T339" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U339" t="n">
+        <v>2</v>
+      </c>
+      <c r="V339" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X339" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ339" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BA339" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC339" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD339" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF339" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK339"/>
+  <dimension ref="A1:BK341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.71</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT16" t="n">
         <v>1.35</v>
@@ -3948,7 +3948,7 @@
         <v>1.53</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT18" t="n">
         <v>0.88</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT26" t="n">
         <v>1.82</v>
@@ -5978,7 +5978,7 @@
         <v>1.24</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU27" t="n">
         <v>1.03</v>
@@ -6181,7 +6181,7 @@
         <v>1.12</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU28" t="n">
         <v>1.97</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT38" t="n">
         <v>0.65</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT43" t="n">
         <v>1.35</v>
@@ -9429,7 +9429,7 @@
         <v>1.59</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU44" t="n">
         <v>1.46</v>
@@ -10850,7 +10850,7 @@
         <v>1.06</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11459,7 +11459,7 @@
         <v>1.94</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU54" t="n">
         <v>2.56</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT61" t="n">
         <v>0.82</v>
@@ -13895,7 +13895,7 @@
         <v>1.94</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU66" t="n">
         <v>2.14</v>
@@ -15316,7 +15316,7 @@
         <v>1.18</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15922,7 +15922,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT76" t="n">
         <v>1.29</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT77" t="n">
         <v>0.9399999999999999</v>
@@ -19782,7 +19782,7 @@
         <v>1.18</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU95" t="n">
         <v>1.47</v>
@@ -20188,7 +20188,7 @@
         <v>2.29</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU97" t="n">
         <v>2.02</v>
@@ -20388,7 +20388,7 @@
         <v>2.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT98" t="n">
         <v>1.82</v>
@@ -20794,7 +20794,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT100" t="n">
         <v>1.12</v>
@@ -23433,7 +23433,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT113" t="n">
         <v>0.9399999999999999</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT114" t="n">
         <v>0.65</v>
@@ -24248,7 +24248,7 @@
         <v>0.82</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU117" t="n">
         <v>1.45</v>
@@ -24857,7 +24857,7 @@
         <v>1.59</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU120" t="n">
         <v>1.51</v>
@@ -26884,7 +26884,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT130" t="n">
         <v>0.88</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT133" t="n">
         <v>0.82</v>
@@ -28714,7 +28714,7 @@
         <v>1.59</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU139" t="n">
         <v>1.58</v>
@@ -29120,7 +29120,7 @@
         <v>1.65</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU141" t="n">
         <v>1.58</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT152" t="n">
         <v>0.88</v>
@@ -32571,7 +32571,7 @@
         <v>1.12</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU158" t="n">
         <v>1.85</v>
@@ -32774,7 +32774,7 @@
         <v>1.47</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU159" t="n">
         <v>1.66</v>
@@ -32974,7 +32974,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT160" t="n">
         <v>1.35</v>
@@ -35410,7 +35410,7 @@
         <v>1.13</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT172" t="n">
         <v>0.88</v>
@@ -35616,7 +35616,7 @@
         <v>1.53</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU173" t="n">
         <v>1.86</v>
@@ -35816,7 +35816,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT174" t="n">
         <v>0.88</v>
@@ -37240,7 +37240,7 @@
         <v>1.24</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU181" t="n">
         <v>1.49</v>
@@ -39673,7 +39673,7 @@
         <v>0.9</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT193" t="n">
         <v>1.06</v>
@@ -40891,7 +40891,7 @@
         <v>1.67</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT199" t="n">
         <v>1.35</v>
@@ -41300,7 +41300,7 @@
         <v>2.12</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU201" t="n">
         <v>1.74</v>
@@ -41503,7 +41503,7 @@
         <v>1.65</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU202" t="n">
         <v>1.64</v>
@@ -44545,7 +44545,7 @@
         <v>1.18</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT217" t="n">
         <v>1.12</v>
@@ -45766,7 +45766,7 @@
         <v>1.06</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU223" t="n">
         <v>1.59</v>
@@ -45966,7 +45966,7 @@
         <v>1.7</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT224" t="n">
         <v>1.59</v>
@@ -46375,7 +46375,7 @@
         <v>0.82</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU226" t="n">
         <v>1.45</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT239" t="n">
         <v>1.29</v>
@@ -49620,10 +49620,10 @@
         <v>1.36</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU242" t="n">
         <v>1.58</v>
@@ -51853,7 +51853,7 @@
         <v>0.85</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT253" t="n">
         <v>0.82</v>
@@ -52056,7 +52056,7 @@
         <v>1</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT254" t="n">
         <v>1.06</v>
@@ -53074,7 +53074,7 @@
         <v>1.18</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU259" t="n">
         <v>1.28</v>
@@ -54901,7 +54901,7 @@
         <v>1.53</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU268" t="n">
         <v>1.78</v>
@@ -55710,7 +55710,7 @@
         <v>1.08</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT272" t="n">
         <v>0.9399999999999999</v>
@@ -56728,7 +56728,7 @@
         <v>1.18</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU277" t="n">
         <v>1.52</v>
@@ -57134,7 +57134,7 @@
         <v>2.29</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU279" t="n">
         <v>1.84</v>
@@ -57334,7 +57334,7 @@
         <v>1.15</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT280" t="n">
         <v>1</v>
@@ -59973,7 +59973,7 @@
         <v>1.14</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT293" t="n">
         <v>1</v>
@@ -60788,7 +60788,7 @@
         <v>1.18</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU297" t="n">
         <v>1.48</v>
@@ -61394,10 +61394,10 @@
         <v>2</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU300" t="n">
         <v>1.53</v>
@@ -64036,7 +64036,7 @@
         <v>1.53</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU313" t="n">
         <v>1.41</v>
@@ -64645,7 +64645,7 @@
         <v>1.53</v>
       </c>
       <c r="AT316" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU316" t="n">
         <v>1.76</v>
@@ -65454,7 +65454,7 @@
         <v>0.93</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT320" t="n">
         <v>0.88</v>
@@ -67687,7 +67687,7 @@
         <v>1.25</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT331" t="n">
         <v>1.18</v>
@@ -69365,6 +69365,412 @@
         <v>16</v>
       </c>
       <c r="BK339" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2982741</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>45039.46875</v>
+      </c>
+      <c r="F340" t="n">
+        <v>34</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>1</v>
+      </c>
+      <c r="J340" t="n">
+        <v>1</v>
+      </c>
+      <c r="K340" t="n">
+        <v>2</v>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="n">
+        <v>2</v>
+      </c>
+      <c r="N340" t="n">
+        <v>3</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>['36', '90']</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>2</v>
+      </c>
+      <c r="R340" t="n">
+        <v>10</v>
+      </c>
+      <c r="S340" t="n">
+        <v>12</v>
+      </c>
+      <c r="T340" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U340" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V340" t="n">
+        <v>4</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X340" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD340" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE340" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF340" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG340" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ340" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK340" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2982743</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45039.46875</v>
+      </c>
+      <c r="F341" t="n">
+        <v>34</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>3</v>
+      </c>
+      <c r="K341" t="n">
+        <v>3</v>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="n">
+        <v>4</v>
+      </c>
+      <c r="N341" t="n">
+        <v>5</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>['21', '32', '44', '72']</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>2</v>
+      </c>
+      <c r="R341" t="n">
+        <v>4</v>
+      </c>
+      <c r="S341" t="n">
+        <v>6</v>
+      </c>
+      <c r="T341" t="n">
+        <v>3</v>
+      </c>
+      <c r="U341" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V341" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X341" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK341" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK341"/>
+  <dimension ref="A1:BK340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.71</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT18" t="n">
         <v>0.88</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT26" t="n">
         <v>1.82</v>
@@ -5978,7 +5978,7 @@
         <v>1.24</v>
       </c>
       <c r="AT27" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU27" t="n">
         <v>1.03</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT43" t="n">
         <v>1.35</v>
@@ -9429,7 +9429,7 @@
         <v>1.59</v>
       </c>
       <c r="AT44" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU44" t="n">
         <v>1.46</v>
@@ -11459,7 +11459,7 @@
         <v>1.94</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU54" t="n">
         <v>2.56</v>
@@ -15316,7 +15316,7 @@
         <v>1.18</v>
       </c>
       <c r="AT73" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15922,7 +15922,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT76" t="n">
         <v>1.29</v>
@@ -20188,7 +20188,7 @@
         <v>2.29</v>
       </c>
       <c r="AT97" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU97" t="n">
         <v>2.02</v>
@@ -20794,7 +20794,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT100" t="n">
         <v>1.12</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT114" t="n">
         <v>0.65</v>
@@ -24248,7 +24248,7 @@
         <v>0.82</v>
       </c>
       <c r="AT117" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU117" t="n">
         <v>1.45</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT133" t="n">
         <v>0.82</v>
@@ -28714,7 +28714,7 @@
         <v>1.59</v>
       </c>
       <c r="AT139" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU139" t="n">
         <v>1.58</v>
@@ -32571,7 +32571,7 @@
         <v>1.12</v>
       </c>
       <c r="AT158" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU158" t="n">
         <v>1.85</v>
@@ -32974,7 +32974,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT160" t="n">
         <v>1.35</v>
@@ -35410,7 +35410,7 @@
         <v>1.13</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT172" t="n">
         <v>0.88</v>
@@ -35616,7 +35616,7 @@
         <v>1.53</v>
       </c>
       <c r="AT173" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU173" t="n">
         <v>1.86</v>
@@ -39673,7 +39673,7 @@
         <v>0.9</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT193" t="n">
         <v>1.06</v>
@@ -41503,7 +41503,7 @@
         <v>1.65</v>
       </c>
       <c r="AT202" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU202" t="n">
         <v>1.64</v>
@@ -45766,7 +45766,7 @@
         <v>1.06</v>
       </c>
       <c r="AT223" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU223" t="n">
         <v>1.59</v>
@@ -45966,7 +45966,7 @@
         <v>1.7</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT224" t="n">
         <v>1.59</v>
@@ -49620,7 +49620,7 @@
         <v>1.36</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT242" t="n">
         <v>1.29</v>
@@ -51853,7 +51853,7 @@
         <v>0.85</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT253" t="n">
         <v>0.82</v>
@@ -53074,7 +53074,7 @@
         <v>1.18</v>
       </c>
       <c r="AT259" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU259" t="n">
         <v>1.28</v>
@@ -55710,7 +55710,7 @@
         <v>1.08</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT272" t="n">
         <v>0.9399999999999999</v>
@@ -56728,7 +56728,7 @@
         <v>1.18</v>
       </c>
       <c r="AT277" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU277" t="n">
         <v>1.52</v>
@@ -59973,7 +59973,7 @@
         <v>1.14</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT293" t="n">
         <v>1</v>
@@ -61397,7 +61397,7 @@
         <v>1.71</v>
       </c>
       <c r="AT300" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU300" t="n">
         <v>1.53</v>
@@ -64036,7 +64036,7 @@
         <v>1.53</v>
       </c>
       <c r="AT313" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU313" t="n">
         <v>1.41</v>
@@ -65454,7 +65454,7 @@
         <v>0.93</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT320" t="n">
         <v>0.88</v>
@@ -69373,7 +69373,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>2982741</v>
+        <v>2982743</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -69393,92 +69393,92 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="I340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J340" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K340" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
       <c r="M340" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N340" t="n">
+        <v>5</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>['21', '32', '44', '72']</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>2</v>
+      </c>
+      <c r="R340" t="n">
+        <v>4</v>
+      </c>
+      <c r="S340" t="n">
+        <v>6</v>
+      </c>
+      <c r="T340" t="n">
         <v>3</v>
       </c>
-      <c r="O340" t="inlineStr">
-        <is>
-          <t>['18']</t>
-        </is>
-      </c>
-      <c r="P340" t="inlineStr">
-        <is>
-          <t>['36', '90']</t>
-        </is>
-      </c>
-      <c r="Q340" t="n">
-        <v>2</v>
-      </c>
-      <c r="R340" t="n">
+      <c r="U340" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V340" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X340" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA340" t="n">
         <v>10</v>
       </c>
-      <c r="S340" t="n">
-        <v>12</v>
-      </c>
-      <c r="T340" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U340" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V340" t="n">
-        <v>4</v>
-      </c>
-      <c r="W340" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X340" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Y340" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Z340" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA340" t="n">
-        <v>9.050000000000001</v>
-      </c>
       <c r="AB340" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AC340" t="n">
         <v>2.25</v>
       </c>
       <c r="AD340" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="AE340" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AF340" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AG340" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AH340" t="n">
         <v>1.44</v>
@@ -69487,290 +69487,87 @@
         <v>2.4</v>
       </c>
       <c r="AJ340" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AK340" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AL340" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AM340" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD340" t="n">
         <v>1.7</v>
       </c>
-      <c r="AN340" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO340" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP340" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ340" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AR340" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AS340" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AT340" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU340" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AV340" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AW340" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AX340" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AY340" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ340" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="BA340" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BB340" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BC340" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BD340" t="n">
-        <v>2.8</v>
-      </c>
       <c r="BE340" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF340" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG340" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI340" t="n">
         <v>4</v>
       </c>
-      <c r="BF340" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG340" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH340" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI340" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ340" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK340" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B341" t="n">
-        <v>2982743</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>Italy Serie B</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>2022/2023</t>
-        </is>
-      </c>
-      <c r="E341" s="2" t="n">
-        <v>45039.46875</v>
-      </c>
-      <c r="F341" t="n">
-        <v>34</v>
-      </c>
-      <c r="G341" t="inlineStr">
-        <is>
-          <t>Ternana</t>
-        </is>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Venezia</t>
-        </is>
-      </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
-      <c r="J341" t="n">
-        <v>3</v>
-      </c>
-      <c r="K341" t="n">
-        <v>3</v>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="n">
-        <v>4</v>
-      </c>
-      <c r="N341" t="n">
-        <v>5</v>
-      </c>
-      <c r="O341" t="inlineStr">
-        <is>
-          <t>['79']</t>
-        </is>
-      </c>
-      <c r="P341" t="inlineStr">
-        <is>
-          <t>['21', '32', '44', '72']</t>
-        </is>
-      </c>
-      <c r="Q341" t="n">
-        <v>2</v>
-      </c>
-      <c r="R341" t="n">
-        <v>4</v>
-      </c>
-      <c r="S341" t="n">
-        <v>6</v>
-      </c>
-      <c r="T341" t="n">
-        <v>3</v>
-      </c>
-      <c r="U341" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V341" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W341" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X341" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y341" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z341" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA341" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB341" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC341" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AD341" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AE341" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AF341" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG341" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AH341" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AI341" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AJ341" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK341" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AL341" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM341" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN341" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO341" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP341" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AQ341" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AR341" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AS341" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AT341" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AU341" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AV341" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AW341" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AX341" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AY341" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AZ341" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="BA341" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="BB341" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BC341" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BD341" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BE341" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BF341" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG341" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH341" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI341" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ341" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK341" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK340"/>
+  <dimension ref="A1:BK341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.71</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT18" t="n">
         <v>0.88</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT26" t="n">
         <v>1.82</v>
@@ -5978,7 +5978,7 @@
         <v>1.24</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU27" t="n">
         <v>1.03</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT43" t="n">
         <v>1.35</v>
@@ -9429,7 +9429,7 @@
         <v>1.59</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU44" t="n">
         <v>1.46</v>
@@ -11459,7 +11459,7 @@
         <v>1.94</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU54" t="n">
         <v>2.56</v>
@@ -15316,7 +15316,7 @@
         <v>1.18</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15922,7 +15922,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT76" t="n">
         <v>1.29</v>
@@ -20188,7 +20188,7 @@
         <v>2.29</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU97" t="n">
         <v>2.02</v>
@@ -20794,7 +20794,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT100" t="n">
         <v>1.12</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT114" t="n">
         <v>0.65</v>
@@ -24248,7 +24248,7 @@
         <v>0.82</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU117" t="n">
         <v>1.45</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT133" t="n">
         <v>0.82</v>
@@ -28714,7 +28714,7 @@
         <v>1.59</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU139" t="n">
         <v>1.58</v>
@@ -32571,7 +32571,7 @@
         <v>1.12</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU158" t="n">
         <v>1.85</v>
@@ -32974,7 +32974,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT160" t="n">
         <v>1.35</v>
@@ -35410,7 +35410,7 @@
         <v>1.13</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT172" t="n">
         <v>0.88</v>
@@ -35616,7 +35616,7 @@
         <v>1.53</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU173" t="n">
         <v>1.86</v>
@@ -39673,7 +39673,7 @@
         <v>0.9</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT193" t="n">
         <v>1.06</v>
@@ -41503,7 +41503,7 @@
         <v>1.65</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU202" t="n">
         <v>1.64</v>
@@ -45766,7 +45766,7 @@
         <v>1.06</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU223" t="n">
         <v>1.59</v>
@@ -45966,7 +45966,7 @@
         <v>1.7</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT224" t="n">
         <v>1.59</v>
@@ -49620,7 +49620,7 @@
         <v>1.36</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT242" t="n">
         <v>1.29</v>
@@ -51853,7 +51853,7 @@
         <v>0.85</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT253" t="n">
         <v>0.82</v>
@@ -53074,7 +53074,7 @@
         <v>1.18</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU259" t="n">
         <v>1.28</v>
@@ -55710,7 +55710,7 @@
         <v>1.08</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT272" t="n">
         <v>0.9399999999999999</v>
@@ -56728,7 +56728,7 @@
         <v>1.18</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU277" t="n">
         <v>1.52</v>
@@ -59973,7 +59973,7 @@
         <v>1.14</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT293" t="n">
         <v>1</v>
@@ -61397,7 +61397,7 @@
         <v>1.71</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU300" t="n">
         <v>1.53</v>
@@ -64036,7 +64036,7 @@
         <v>1.53</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU313" t="n">
         <v>1.41</v>
@@ -65454,7 +65454,7 @@
         <v>0.93</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT320" t="n">
         <v>0.88</v>
@@ -69373,7 +69373,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>2982743</v>
+        <v>2982741</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -69393,92 +69393,92 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="I340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340" t="n">
+        <v>1</v>
+      </c>
+      <c r="K340" t="n">
+        <v>2</v>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="n">
+        <v>2</v>
+      </c>
+      <c r="N340" t="n">
         <v>3</v>
       </c>
-      <c r="K340" t="n">
-        <v>3</v>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="n">
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>['36', '90']</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>2</v>
+      </c>
+      <c r="R340" t="n">
+        <v>10</v>
+      </c>
+      <c r="S340" t="n">
+        <v>12</v>
+      </c>
+      <c r="T340" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U340" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V340" t="n">
         <v>4</v>
       </c>
-      <c r="N340" t="n">
-        <v>5</v>
-      </c>
-      <c r="O340" t="inlineStr">
-        <is>
-          <t>['79']</t>
-        </is>
-      </c>
-      <c r="P340" t="inlineStr">
-        <is>
-          <t>['21', '32', '44', '72']</t>
-        </is>
-      </c>
-      <c r="Q340" t="n">
-        <v>2</v>
-      </c>
-      <c r="R340" t="n">
-        <v>4</v>
-      </c>
-      <c r="S340" t="n">
-        <v>6</v>
-      </c>
-      <c r="T340" t="n">
-        <v>3</v>
-      </c>
-      <c r="U340" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V340" t="n">
-        <v>3.75</v>
-      </c>
       <c r="W340" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="X340" t="n">
-        <v>2.63</v>
+        <v>2.52</v>
       </c>
       <c r="Y340" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Z340" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AA340" t="n">
-        <v>10</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="AB340" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AC340" t="n">
         <v>2.25</v>
       </c>
       <c r="AD340" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="AE340" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="AF340" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AG340" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AH340" t="n">
         <v>1.44</v>
@@ -69487,87 +69487,290 @@
         <v>2.4</v>
       </c>
       <c r="AJ340" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AK340" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB340" t="n">
         <v>1.6</v>
       </c>
-      <c r="AL340" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM340" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN340" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO340" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP340" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AQ340" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AR340" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AS340" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AT340" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AU340" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AV340" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AW340" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AX340" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AY340" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AZ340" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="BA340" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="BB340" t="n">
-        <v>1.21</v>
-      </c>
       <c r="BC340" t="n">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="BD340" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="BE340" t="n">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="BF340" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG340" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BH340" t="n">
         <v>6</v>
       </c>
       <c r="BI340" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ340" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK340" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2982743</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45039.46875</v>
+      </c>
+      <c r="F341" t="n">
+        <v>34</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>3</v>
+      </c>
+      <c r="K341" t="n">
+        <v>3</v>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="n">
         <v>4</v>
       </c>
-      <c r="BJ340" t="n">
+      <c r="N341" t="n">
+        <v>5</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>['21', '32', '44', '72']</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>2</v>
+      </c>
+      <c r="R341" t="n">
+        <v>4</v>
+      </c>
+      <c r="S341" t="n">
+        <v>6</v>
+      </c>
+      <c r="T341" t="n">
+        <v>3</v>
+      </c>
+      <c r="U341" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V341" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X341" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ341" t="n">
         <v>12</v>
       </c>
-      <c r="BK340" t="n">
+      <c r="BK341" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK341"/>
+  <dimension ref="A1:BK351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.12</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT4" t="n">
         <v>0.88</v>
@@ -1512,7 +1512,7 @@
         <v>1.65</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.06</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT9" t="n">
         <v>1.59</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
         <v>0.9399999999999999</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT14" t="n">
         <v>0.9399999999999999</v>
@@ -3542,7 +3542,7 @@
         <v>1.24</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.71</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>1.29</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
         <v>1.06</v>
@@ -4557,7 +4557,7 @@
         <v>1.59</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT21" t="n">
         <v>0.88</v>
@@ -5369,7 +5369,7 @@
         <v>1.47</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU24" t="n">
         <v>1.55</v>
@@ -5775,7 +5775,7 @@
         <v>1.53</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU26" t="n">
         <v>1.77</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT29" t="n">
         <v>1.71</v>
@@ -6587,7 +6587,7 @@
         <v>1.71</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT31" t="n">
         <v>0.88</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU32" t="n">
         <v>2.09</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT33" t="n">
         <v>1.06</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
         <v>0.9399999999999999</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU35" t="n">
         <v>1.41</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT36" t="n">
         <v>0.88</v>
@@ -8211,7 +8211,7 @@
         <v>1.71</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU38" t="n">
         <v>1.37</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>2.12</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU40" t="n">
         <v>1.92</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU41" t="n">
         <v>0.73</v>
@@ -9023,7 +9023,7 @@
         <v>1.65</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU42" t="n">
         <v>1.67</v>
@@ -9226,7 +9226,7 @@
         <v>1.53</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -9632,7 +9632,7 @@
         <v>1.71</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU45" t="n">
         <v>1.64</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT47" t="n">
         <v>1.59</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT48" t="n">
         <v>0.88</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU53" t="n">
         <v>1.34</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
         <v>2</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT55" t="n">
         <v>0.9399999999999999</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT56" t="n">
         <v>0.9399999999999999</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU57" t="n">
         <v>1.49</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU59" t="n">
         <v>1.11</v>
@@ -12677,7 +12677,7 @@
         <v>2.12</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU60" t="n">
         <v>1.86</v>
@@ -12880,7 +12880,7 @@
         <v>1.71</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU61" t="n">
         <v>1.36</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT64" t="n">
         <v>0.88</v>
@@ -13692,7 +13692,7 @@
         <v>1.06</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU65" t="n">
         <v>1.76</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
         <v>1.29</v>
@@ -14098,7 +14098,7 @@
         <v>1.12</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU67" t="n">
         <v>1.79</v>
@@ -14301,7 +14301,7 @@
         <v>1.47</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU68" t="n">
         <v>1.73</v>
@@ -14707,7 +14707,7 @@
         <v>1.24</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU70" t="n">
         <v>1.8</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT71" t="n">
         <v>1.35</v>
@@ -15313,7 +15313,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT73" t="n">
         <v>2</v>
@@ -15516,10 +15516,10 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU74" t="n">
         <v>1.41</v>
@@ -15719,7 +15719,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT75" t="n">
         <v>1.06</v>
@@ -15925,7 +15925,7 @@
         <v>1.53</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT78" t="n">
         <v>0.9399999999999999</v>
@@ -16534,7 +16534,7 @@
         <v>1.53</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,10 +16734,10 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU80" t="n">
         <v>1.64</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT82" t="n">
         <v>1.71</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU83" t="n">
         <v>1.51</v>
@@ -17546,7 +17546,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT84" t="n">
         <v>0.88</v>
@@ -17955,7 +17955,7 @@
         <v>1.59</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU86" t="n">
         <v>1.17</v>
@@ -18361,7 +18361,7 @@
         <v>1.65</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU88" t="n">
         <v>1.79</v>
@@ -18564,7 +18564,7 @@
         <v>1.71</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU89" t="n">
         <v>1.69</v>
@@ -18764,7 +18764,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT90" t="n">
         <v>1.35</v>
@@ -19173,7 +19173,7 @@
         <v>1.06</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU92" t="n">
         <v>1.57</v>
@@ -19373,10 +19373,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU93" t="n">
         <v>1.44</v>
@@ -19579,7 +19579,7 @@
         <v>1.53</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU94" t="n">
         <v>1.74</v>
@@ -19779,7 +19779,7 @@
         <v>1.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT95" t="n">
         <v>1.29</v>
@@ -19982,7 +19982,7 @@
         <v>1.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20185,7 +20185,7 @@
         <v>2.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT97" t="n">
         <v>2</v>
@@ -20391,7 +20391,7 @@
         <v>1.71</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU98" t="n">
         <v>1.51</v>
@@ -20797,7 +20797,7 @@
         <v>1.53</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU100" t="n">
         <v>1.54</v>
@@ -20997,7 +20997,7 @@
         <v>1.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT101" t="n">
         <v>0.88</v>
@@ -21200,10 +21200,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU102" t="n">
         <v>1.8</v>
@@ -21403,7 +21403,7 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT103" t="n">
         <v>1.35</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22621,10 +22621,10 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU109" t="n">
         <v>1.52</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT112" t="n">
         <v>0.88</v>
@@ -23639,7 +23639,7 @@
         <v>1.53</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU114" t="n">
         <v>1.61</v>
@@ -23842,7 +23842,7 @@
         <v>1.12</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU115" t="n">
         <v>1.78</v>
@@ -24042,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT116" t="n">
         <v>1.35</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT117" t="n">
         <v>2</v>
@@ -24448,10 +24448,10 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -24654,7 +24654,7 @@
         <v>1.65</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -24854,7 +24854,7 @@
         <v>1.6</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT120" t="n">
         <v>1.29</v>
@@ -25060,7 +25060,7 @@
         <v>1.53</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU121" t="n">
         <v>2.12</v>
@@ -25260,7 +25260,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT122" t="n">
         <v>1.71</v>
@@ -25463,10 +25463,10 @@
         <v>1.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -26075,7 +26075,7 @@
         <v>1.47</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU126" t="n">
         <v>1.67</v>
@@ -26275,10 +26275,10 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU127" t="n">
         <v>1.77</v>
@@ -26681,7 +26681,7 @@
         <v>1.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT129" t="n">
         <v>1.59</v>
@@ -27293,7 +27293,7 @@
         <v>1.71</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU132" t="n">
         <v>1.49</v>
@@ -27496,7 +27496,7 @@
         <v>1.53</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU133" t="n">
         <v>1.64</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT135" t="n">
         <v>0.88</v>
@@ -28105,7 +28105,7 @@
         <v>1.12</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -28308,7 +28308,7 @@
         <v>1.24</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -28508,7 +28508,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT138" t="n">
         <v>0.9399999999999999</v>
@@ -28711,7 +28711,7 @@
         <v>2</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT139" t="n">
         <v>2</v>
@@ -28914,7 +28914,7 @@
         <v>1.83</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT140" t="n">
         <v>1.35</v>
@@ -29320,10 +29320,10 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU142" t="n">
         <v>1.54</v>
@@ -29523,10 +29523,10 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU143" t="n">
         <v>1.77</v>
@@ -29729,7 +29729,7 @@
         <v>1.06</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU144" t="n">
         <v>1.43</v>
@@ -29929,7 +29929,7 @@
         <v>0.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT145" t="n">
         <v>0.88</v>
@@ -30132,10 +30132,10 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU146" t="n">
         <v>2.05</v>
@@ -30335,10 +30335,10 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU147" t="n">
         <v>1.47</v>
@@ -30541,7 +30541,7 @@
         <v>1.59</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU148" t="n">
         <v>1.1</v>
@@ -30944,7 +30944,7 @@
         <v>1.71</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT150" t="n">
         <v>1.71</v>
@@ -31147,7 +31147,7 @@
         <v>0.67</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT151" t="n">
         <v>0.9399999999999999</v>
@@ -33380,10 +33380,10 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU162" t="n">
         <v>1.71</v>
@@ -33583,10 +33583,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU163" t="n">
         <v>1.56</v>
@@ -33989,10 +33989,10 @@
         <v>1.63</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU165" t="n">
         <v>1.62</v>
@@ -34192,10 +34192,10 @@
         <v>1.25</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU166" t="n">
         <v>1.34</v>
@@ -34395,7 +34395,7 @@
         <v>1.13</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT167" t="n">
         <v>1.06</v>
@@ -34598,10 +34598,10 @@
         <v>1.88</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU168" t="n">
         <v>1.37</v>
@@ -34801,10 +34801,10 @@
         <v>1.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU169" t="n">
         <v>2.01</v>
@@ -35004,10 +35004,10 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU170" t="n">
         <v>1.94</v>
@@ -35207,10 +35207,10 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU171" t="n">
         <v>1.41</v>
@@ -37440,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT182" t="n">
         <v>0.9399999999999999</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT183" t="n">
         <v>1.06</v>
@@ -37846,10 +37846,10 @@
         <v>1.11</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU184" t="n">
         <v>1.39</v>
@@ -38052,7 +38052,7 @@
         <v>1.06</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU185" t="n">
         <v>1.54</v>
@@ -38252,10 +38252,10 @@
         <v>1.25</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU186" t="n">
         <v>1.56</v>
@@ -38455,10 +38455,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU187" t="n">
         <v>1.41</v>
@@ -38658,10 +38658,10 @@
         <v>1.78</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU188" t="n">
         <v>1.34</v>
@@ -38861,10 +38861,10 @@
         <v>0.67</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU189" t="n">
         <v>1.83</v>
@@ -39064,10 +39064,10 @@
         <v>1.22</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU190" t="n">
         <v>1.87</v>
@@ -39267,10 +39267,10 @@
         <v>1.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU191" t="n">
         <v>1.92</v>
@@ -40079,7 +40079,7 @@
         <v>0.78</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT195" t="n">
         <v>0.88</v>
@@ -40282,10 +40282,10 @@
         <v>1.22</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU196" t="n">
         <v>1.89</v>
@@ -40485,10 +40485,10 @@
         <v>1.3</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU197" t="n">
         <v>1.87</v>
@@ -40688,7 +40688,7 @@
         <v>1</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT198" t="n">
         <v>0.88</v>
@@ -41703,10 +41703,10 @@
         <v>1.9</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU203" t="n">
         <v>1.46</v>
@@ -42112,7 +42112,7 @@
         <v>1.53</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU205" t="n">
         <v>1.83</v>
@@ -42312,10 +42312,10 @@
         <v>1.2</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU206" t="n">
         <v>1.58</v>
@@ -42518,7 +42518,7 @@
         <v>1.47</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU207" t="n">
         <v>1.59</v>
@@ -42721,7 +42721,7 @@
         <v>1.71</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU208" t="n">
         <v>1.8</v>
@@ -42921,7 +42921,7 @@
         <v>1.56</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT209" t="n">
         <v>1.59</v>
@@ -43327,7 +43327,7 @@
         <v>1.6</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT211" t="n">
         <v>1.71</v>
@@ -43530,7 +43530,7 @@
         <v>1.2</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT212" t="n">
         <v>0.9399999999999999</v>
@@ -43733,10 +43733,10 @@
         <v>0.73</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU213" t="n">
         <v>1.87</v>
@@ -43936,7 +43936,7 @@
         <v>0.7</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT214" t="n">
         <v>0.88</v>
@@ -44142,7 +44142,7 @@
         <v>1.59</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU215" t="n">
         <v>1.3</v>
@@ -44342,10 +44342,10 @@
         <v>1.9</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU216" t="n">
         <v>1.4</v>
@@ -44548,7 +44548,7 @@
         <v>1.71</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU217" t="n">
         <v>1.59</v>
@@ -44748,7 +44748,7 @@
         <v>1.09</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT218" t="n">
         <v>1.06</v>
@@ -44954,7 +44954,7 @@
         <v>2.12</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU219" t="n">
         <v>1.71</v>
@@ -45154,7 +45154,7 @@
         <v>1</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT220" t="n">
         <v>0.9399999999999999</v>
@@ -45357,7 +45357,7 @@
         <v>1.4</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT221" t="n">
         <v>1</v>
@@ -46372,7 +46372,7 @@
         <v>1.2</v>
       </c>
       <c r="AS226" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT226" t="n">
         <v>1.29</v>
@@ -46781,7 +46781,7 @@
         <v>1.59</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU228" t="n">
         <v>1.31</v>
@@ -46981,7 +46981,7 @@
         <v>1.73</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT229" t="n">
         <v>1.71</v>
@@ -47187,7 +47187,7 @@
         <v>1.65</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU230" t="n">
         <v>1.62</v>
@@ -47390,7 +47390,7 @@
         <v>1.71</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU231" t="n">
         <v>1.74</v>
@@ -47796,7 +47796,7 @@
         <v>1.53</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU233" t="n">
         <v>1.85</v>
@@ -47996,7 +47996,7 @@
         <v>1.09</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT234" t="n">
         <v>0.9399999999999999</v>
@@ -48199,7 +48199,7 @@
         <v>0.91</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT235" t="n">
         <v>0.88</v>
@@ -48402,10 +48402,10 @@
         <v>1.08</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU236" t="n">
         <v>1.3</v>
@@ -48605,7 +48605,7 @@
         <v>1.27</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT237" t="n">
         <v>1</v>
@@ -48808,7 +48808,7 @@
         <v>1.08</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT238" t="n">
         <v>1.06</v>
@@ -49014,7 +49014,7 @@
         <v>1.71</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU239" t="n">
         <v>1.59</v>
@@ -49214,10 +49214,10 @@
         <v>0.92</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU240" t="n">
         <v>1.42</v>
@@ -49417,10 +49417,10 @@
         <v>0.55</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU241" t="n">
         <v>1.82</v>
@@ -49823,7 +49823,7 @@
         <v>0.82</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT243" t="n">
         <v>0.88</v>
@@ -50029,7 +50029,7 @@
         <v>1.12</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU244" t="n">
         <v>1.79</v>
@@ -51041,7 +51041,7 @@
         <v>0.73</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT249" t="n">
         <v>0.88</v>
@@ -51247,7 +51247,7 @@
         <v>1.24</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU250" t="n">
         <v>1.65</v>
@@ -51450,7 +51450,7 @@
         <v>1.47</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU251" t="n">
         <v>1.66</v>
@@ -51650,10 +51650,10 @@
         <v>1</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU252" t="n">
         <v>1.81</v>
@@ -51856,7 +51856,7 @@
         <v>1.53</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU253" t="n">
         <v>1.61</v>
@@ -52259,7 +52259,7 @@
         <v>0.75</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT255" t="n">
         <v>0.88</v>
@@ -52465,7 +52465,7 @@
         <v>1.53</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU256" t="n">
         <v>1.84</v>
@@ -52665,7 +52665,7 @@
         <v>1.08</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT257" t="n">
         <v>0.9399999999999999</v>
@@ -52868,10 +52868,10 @@
         <v>0.5</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU258" t="n">
         <v>1.66</v>
@@ -53071,7 +53071,7 @@
         <v>1.83</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT259" t="n">
         <v>2</v>
@@ -53477,7 +53477,7 @@
         <v>1.17</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT261" t="n">
         <v>1</v>
@@ -53683,7 +53683,7 @@
         <v>1.65</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU262" t="n">
         <v>1.59</v>
@@ -53886,7 +53886,7 @@
         <v>1.59</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU263" t="n">
         <v>1.38</v>
@@ -54089,7 +54089,7 @@
         <v>1.71</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU264" t="n">
         <v>1.7</v>
@@ -54492,7 +54492,7 @@
         <v>1.75</v>
       </c>
       <c r="AS266" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT266" t="n">
         <v>1.59</v>
@@ -54898,7 +54898,7 @@
         <v>1.33</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT268" t="n">
         <v>1.29</v>
@@ -55507,10 +55507,10 @@
         <v>1.77</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU271" t="n">
         <v>1.83</v>
@@ -55916,7 +55916,7 @@
         <v>1.53</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU273" t="n">
         <v>1.83</v>
@@ -56319,7 +56319,7 @@
         <v>0.77</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT275" t="n">
         <v>0.88</v>
@@ -56522,10 +56522,10 @@
         <v>1.14</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU276" t="n">
         <v>1.71</v>
@@ -56725,7 +56725,7 @@
         <v>1.92</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT277" t="n">
         <v>2</v>
@@ -56928,10 +56928,10 @@
         <v>0.79</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU278" t="n">
         <v>1.38</v>
@@ -57131,7 +57131,7 @@
         <v>1.23</v>
       </c>
       <c r="AS279" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT279" t="n">
         <v>1.29</v>
@@ -57540,7 +57540,7 @@
         <v>2.12</v>
       </c>
       <c r="AT281" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU281" t="n">
         <v>1.75</v>
@@ -57740,7 +57740,7 @@
         <v>1.57</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT282" t="n">
         <v>1.35</v>
@@ -57943,7 +57943,7 @@
         <v>0.93</v>
       </c>
       <c r="AS283" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT283" t="n">
         <v>0.88</v>
@@ -58352,7 +58352,7 @@
         <v>1.47</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU285" t="n">
         <v>1.55</v>
@@ -58755,7 +58755,7 @@
         <v>0.77</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT287" t="n">
         <v>0.88</v>
@@ -58958,7 +58958,7 @@
         <v>1.86</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT288" t="n">
         <v>1.71</v>
@@ -59367,7 +59367,7 @@
         <v>2.12</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU290" t="n">
         <v>1.79</v>
@@ -59570,7 +59570,7 @@
         <v>1.65</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU291" t="n">
         <v>1.6</v>
@@ -59770,7 +59770,7 @@
         <v>0.86</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT292" t="n">
         <v>0.9399999999999999</v>
@@ -60176,10 +60176,10 @@
         <v>0.43</v>
       </c>
       <c r="AS294" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT294" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU294" t="n">
         <v>1.84</v>
@@ -60379,10 +60379,10 @@
         <v>1.71</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU295" t="n">
         <v>1.37</v>
@@ -60585,7 +60585,7 @@
         <v>1.12</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU296" t="n">
         <v>1.74</v>
@@ -60785,7 +60785,7 @@
         <v>1.14</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT297" t="n">
         <v>1.29</v>
@@ -60988,10 +60988,10 @@
         <v>1.29</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT298" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU298" t="n">
         <v>1.67</v>
@@ -61600,7 +61600,7 @@
         <v>2.12</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU301" t="n">
         <v>1.8</v>
@@ -61800,7 +61800,7 @@
         <v>0.93</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT302" t="n">
         <v>0.88</v>
@@ -62006,7 +62006,7 @@
         <v>1.06</v>
       </c>
       <c r="AT303" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU303" t="n">
         <v>1.58</v>
@@ -62209,7 +62209,7 @@
         <v>1.59</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU304" t="n">
         <v>1.44</v>
@@ -62612,7 +62612,7 @@
         <v>0.79</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT306" t="n">
         <v>0.88</v>
@@ -62815,7 +62815,7 @@
         <v>1.79</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT307" t="n">
         <v>1.59</v>
@@ -63018,7 +63018,7 @@
         <v>1.07</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT308" t="n">
         <v>1</v>
@@ -63630,7 +63630,7 @@
         <v>1.24</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU311" t="n">
         <v>1.64</v>
@@ -63830,7 +63830,7 @@
         <v>0.8</v>
       </c>
       <c r="AS312" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT312" t="n">
         <v>0.9399999999999999</v>
@@ -64033,7 +64033,7 @@
         <v>1.87</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT313" t="n">
         <v>2</v>
@@ -64239,7 +64239,7 @@
         <v>1.24</v>
       </c>
       <c r="AT314" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU314" t="n">
         <v>1.61</v>
@@ -64439,7 +64439,7 @@
         <v>1.47</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT315" t="n">
         <v>1.35</v>
@@ -64848,7 +64848,7 @@
         <v>1.12</v>
       </c>
       <c r="AT317" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU317" t="n">
         <v>1.74</v>
@@ -65048,10 +65048,10 @@
         <v>0.88</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU318" t="n">
         <v>1.37</v>
@@ -65251,10 +65251,10 @@
         <v>1.8</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU319" t="n">
         <v>1.62</v>
@@ -65660,7 +65660,7 @@
         <v>1.65</v>
       </c>
       <c r="AT321" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU321" t="n">
         <v>1.6</v>
@@ -65863,7 +65863,7 @@
         <v>1.47</v>
       </c>
       <c r="AT322" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU322" t="n">
         <v>1.53</v>
@@ -66063,7 +66063,7 @@
         <v>1</v>
       </c>
       <c r="AS323" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT323" t="n">
         <v>0.9399999999999999</v>
@@ -66266,7 +66266,7 @@
         <v>1.73</v>
       </c>
       <c r="AS324" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT324" t="n">
         <v>1.59</v>
@@ -66469,7 +66469,7 @@
         <v>0.88</v>
       </c>
       <c r="AS325" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT325" t="n">
         <v>0.88</v>
@@ -66672,10 +66672,10 @@
         <v>1.38</v>
       </c>
       <c r="AS326" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT326" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AU326" t="n">
         <v>1.4</v>
@@ -67081,7 +67081,7 @@
         <v>2.12</v>
       </c>
       <c r="AT328" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU328" t="n">
         <v>1.78</v>
@@ -67484,7 +67484,7 @@
         <v>1.75</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT330" t="n">
         <v>1.71</v>
@@ -67690,7 +67690,7 @@
         <v>1.71</v>
       </c>
       <c r="AT331" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU331" t="n">
         <v>1.5</v>
@@ -68096,7 +68096,7 @@
         <v>1.24</v>
       </c>
       <c r="AT333" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU333" t="n">
         <v>1.58</v>
@@ -68502,7 +68502,7 @@
         <v>1.12</v>
       </c>
       <c r="AT335" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU335" t="n">
         <v>1.72</v>
@@ -68702,7 +68702,7 @@
         <v>1.63</v>
       </c>
       <c r="AS336" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT336" t="n">
         <v>1.59</v>
@@ -68905,7 +68905,7 @@
         <v>1.38</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT337" t="n">
         <v>1.35</v>
@@ -69772,6 +69772,2036 @@
       </c>
       <c r="BK341" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2982748</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>45046.46875</v>
+      </c>
+      <c r="F342" t="n">
+        <v>35</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>1</v>
+      </c>
+      <c r="J342" t="n">
+        <v>1</v>
+      </c>
+      <c r="K342" t="n">
+        <v>2</v>
+      </c>
+      <c r="L342" t="n">
+        <v>2</v>
+      </c>
+      <c r="M342" t="n">
+        <v>1</v>
+      </c>
+      <c r="N342" t="n">
+        <v>3</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>['4', '60']</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q342" t="n">
+        <v>5</v>
+      </c>
+      <c r="R342" t="n">
+        <v>5</v>
+      </c>
+      <c r="S342" t="n">
+        <v>10</v>
+      </c>
+      <c r="T342" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U342" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V342" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W342" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X342" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL342" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM342" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP342" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ342" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR342" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS342" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT342" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU342" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW342" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX342" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY342" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ342" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA342" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB342" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC342" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD342" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE342" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF342" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG342" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH342" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI342" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ342" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK342" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2982751</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>45046.46875</v>
+      </c>
+      <c r="F343" t="n">
+        <v>35</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" t="n">
+        <v>1</v>
+      </c>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="n">
+        <v>1</v>
+      </c>
+      <c r="N343" t="n">
+        <v>2</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q343" t="n">
+        <v>6</v>
+      </c>
+      <c r="R343" t="n">
+        <v>7</v>
+      </c>
+      <c r="S343" t="n">
+        <v>13</v>
+      </c>
+      <c r="T343" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U343" t="n">
+        <v>2</v>
+      </c>
+      <c r="V343" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="W343" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X343" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD343" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE343" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG343" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH343" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI343" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ343" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK343" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL343" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM343" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN343" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO343" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP343" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ343" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR343" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS343" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT343" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU343" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV343" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW343" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX343" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY343" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ343" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA343" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB343" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC343" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD343" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE343" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF343" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG343" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH343" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI343" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ343" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK343" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2982749</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="n">
+        <v>45047.3125</v>
+      </c>
+      <c r="F344" t="n">
+        <v>35</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>1</v>
+      </c>
+      <c r="J344" t="n">
+        <v>1</v>
+      </c>
+      <c r="K344" t="n">
+        <v>2</v>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="n">
+        <v>1</v>
+      </c>
+      <c r="N344" t="n">
+        <v>2</v>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q344" t="n">
+        <v>5</v>
+      </c>
+      <c r="R344" t="n">
+        <v>9</v>
+      </c>
+      <c r="S344" t="n">
+        <v>14</v>
+      </c>
+      <c r="T344" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U344" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V344" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W344" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X344" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB344" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD344" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE344" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AF344" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG344" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH344" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI344" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ344" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK344" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL344" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM344" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AN344" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO344" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP344" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ344" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR344" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS344" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT344" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU344" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV344" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW344" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX344" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AY344" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ344" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA344" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB344" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC344" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD344" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE344" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF344" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG344" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH344" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI344" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ344" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK344" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2982744</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E345" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="F345" t="n">
+        <v>35</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>0</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L345" t="n">
+        <v>2</v>
+      </c>
+      <c r="M345" t="n">
+        <v>1</v>
+      </c>
+      <c r="N345" t="n">
+        <v>3</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>['53', '73']</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q345" t="n">
+        <v>9</v>
+      </c>
+      <c r="R345" t="n">
+        <v>1</v>
+      </c>
+      <c r="S345" t="n">
+        <v>10</v>
+      </c>
+      <c r="T345" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U345" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V345" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W345" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X345" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA345" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB345" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC345" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD345" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE345" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AF345" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG345" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AH345" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI345" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ345" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK345" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL345" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM345" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN345" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO345" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP345" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ345" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR345" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS345" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT345" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU345" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV345" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW345" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX345" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY345" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ345" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BA345" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB345" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC345" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD345" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE345" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF345" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG345" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH345" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI345" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ345" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK345" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2982745</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E346" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="F346" t="n">
+        <v>35</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>0</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="n">
+        <v>1</v>
+      </c>
+      <c r="N346" t="n">
+        <v>2</v>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q346" t="n">
+        <v>4</v>
+      </c>
+      <c r="R346" t="n">
+        <v>9</v>
+      </c>
+      <c r="S346" t="n">
+        <v>13</v>
+      </c>
+      <c r="T346" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U346" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V346" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W346" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X346" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB346" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC346" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD346" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE346" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF346" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG346" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH346" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI346" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AJ346" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK346" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL346" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM346" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN346" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO346" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP346" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ346" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR346" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS346" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT346" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU346" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV346" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW346" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX346" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY346" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ346" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA346" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB346" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC346" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD346" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE346" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF346" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG346" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH346" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI346" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ346" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK346" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2982746</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="F347" t="n">
+        <v>35</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" t="n">
+        <v>2</v>
+      </c>
+      <c r="K347" t="n">
+        <v>2</v>
+      </c>
+      <c r="L347" t="n">
+        <v>2</v>
+      </c>
+      <c r="M347" t="n">
+        <v>2</v>
+      </c>
+      <c r="N347" t="n">
+        <v>4</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>['48', '86']</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>['7', '42']</t>
+        </is>
+      </c>
+      <c r="Q347" t="n">
+        <v>7</v>
+      </c>
+      <c r="R347" t="n">
+        <v>5</v>
+      </c>
+      <c r="S347" t="n">
+        <v>12</v>
+      </c>
+      <c r="T347" t="n">
+        <v>4</v>
+      </c>
+      <c r="U347" t="n">
+        <v>2</v>
+      </c>
+      <c r="V347" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W347" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X347" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC347" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD347" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE347" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AF347" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG347" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AH347" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI347" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ347" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK347" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL347" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM347" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN347" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO347" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP347" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ347" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR347" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS347" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT347" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU347" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV347" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW347" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX347" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AY347" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ347" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA347" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB347" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC347" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD347" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE347" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF347" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG347" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH347" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI347" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ347" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK347" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2982747</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E348" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="F348" t="n">
+        <v>35</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>0</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L348" t="n">
+        <v>2</v>
+      </c>
+      <c r="M348" t="n">
+        <v>1</v>
+      </c>
+      <c r="N348" t="n">
+        <v>3</v>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>['55', '60']</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q348" t="n">
+        <v>4</v>
+      </c>
+      <c r="R348" t="n">
+        <v>5</v>
+      </c>
+      <c r="S348" t="n">
+        <v>9</v>
+      </c>
+      <c r="T348" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U348" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V348" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="W348" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X348" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA348" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB348" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC348" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD348" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE348" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AF348" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG348" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH348" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI348" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ348" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK348" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL348" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM348" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN348" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO348" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP348" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ348" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR348" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS348" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT348" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU348" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV348" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW348" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX348" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY348" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ348" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BA348" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB348" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC348" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD348" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE348" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF348" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG348" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH348" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI348" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ348" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK348" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2982752</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E349" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="F349" t="n">
+        <v>35</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>0</v>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q349" t="n">
+        <v>5</v>
+      </c>
+      <c r="R349" t="n">
+        <v>6</v>
+      </c>
+      <c r="S349" t="n">
+        <v>11</v>
+      </c>
+      <c r="T349" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U349" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V349" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W349" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X349" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB349" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC349" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AD349" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE349" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AF349" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG349" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH349" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI349" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ349" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK349" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL349" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM349" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN349" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO349" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP349" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ349" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR349" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS349" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT349" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU349" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV349" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW349" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX349" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AY349" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ349" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA349" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB349" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC349" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD349" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE349" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF349" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG349" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH349" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI349" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ349" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK349" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2982753</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>45047.54166666666</v>
+      </c>
+      <c r="F350" t="n">
+        <v>35</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>1</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
+      <c r="L350" t="n">
+        <v>5</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>5</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>['32', '54', '72', '79', '82']</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q350" t="n">
+        <v>8</v>
+      </c>
+      <c r="R350" t="n">
+        <v>5</v>
+      </c>
+      <c r="S350" t="n">
+        <v>13</v>
+      </c>
+      <c r="T350" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U350" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V350" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W350" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X350" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB350" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC350" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD350" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE350" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF350" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG350" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH350" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI350" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ350" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK350" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL350" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM350" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN350" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO350" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP350" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ350" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR350" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS350" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT350" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU350" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV350" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW350" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX350" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY350" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ350" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA350" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB350" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC350" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD350" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE350" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF350" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG350" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH350" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI350" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ350" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK350" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2982750</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>45047.64583333334</v>
+      </c>
+      <c r="F351" t="n">
+        <v>35</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>2</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>2</v>
+      </c>
+      <c r="L351" t="n">
+        <v>3</v>
+      </c>
+      <c r="M351" t="n">
+        <v>1</v>
+      </c>
+      <c r="N351" t="n">
+        <v>4</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>['31', '42', '57']</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q351" t="n">
+        <v>4</v>
+      </c>
+      <c r="R351" t="n">
+        <v>6</v>
+      </c>
+      <c r="S351" t="n">
+        <v>10</v>
+      </c>
+      <c r="T351" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U351" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V351" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W351" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X351" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC351" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD351" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE351" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF351" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG351" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH351" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI351" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ351" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK351" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL351" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM351" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN351" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO351" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP351" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ351" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR351" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS351" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT351" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU351" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV351" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW351" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX351" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY351" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ351" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BA351" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB351" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC351" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD351" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE351" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF351" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG351" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH351" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI351" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ351" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK351" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK351"/>
+  <dimension ref="A1:BK352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.56</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT15" t="n">
         <v>1.28</v>
@@ -5166,7 +5166,7 @@
         <v>1.06</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.87</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT27" t="n">
         <v>2</v>
@@ -10241,7 +10241,7 @@
         <v>0.83</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.53</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT50" t="n">
         <v>1.35</v>
@@ -14704,7 +14704,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT70" t="n">
         <v>1.11</v>
@@ -15113,7 +15113,7 @@
         <v>2.12</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.83</v>
@@ -18967,7 +18967,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT91" t="n">
         <v>1.59</v>
@@ -21000,7 +21000,7 @@
         <v>1.28</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT111" t="n">
         <v>1.06</v>
@@ -23233,7 +23233,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -27902,7 +27902,7 @@
         <v>2.33</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU135" t="n">
         <v>1.92</v>
@@ -28305,7 +28305,7 @@
         <v>2.14</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT137" t="n">
         <v>1.78</v>
@@ -31353,7 +31353,7 @@
         <v>1.71</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU152" t="n">
         <v>1.46</v>
@@ -31756,7 +31756,7 @@
         <v>0.71</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT154" t="n">
         <v>0.9399999999999999</v>
@@ -36834,7 +36834,7 @@
         <v>1.65</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU179" t="n">
         <v>1.61</v>
@@ -37237,7 +37237,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT181" t="n">
         <v>1.29</v>
@@ -39876,7 +39876,7 @@
         <v>1</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT194" t="n">
         <v>0.9399999999999999</v>
@@ -43127,7 +43127,7 @@
         <v>1.12</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU210" t="n">
         <v>1.87</v>
@@ -45563,7 +45563,7 @@
         <v>1.47</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU222" t="n">
         <v>1.66</v>
@@ -46169,7 +46169,7 @@
         <v>0.9</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT225" t="n">
         <v>0.88</v>
@@ -51044,7 +51044,7 @@
         <v>1.5</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU249" t="n">
         <v>1.82</v>
@@ -51244,7 +51244,7 @@
         <v>1</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT250" t="n">
         <v>0.78</v>
@@ -52262,7 +52262,7 @@
         <v>1.28</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU255" t="n">
         <v>1.52</v>
@@ -55101,7 +55101,7 @@
         <v>0.92</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT269" t="n">
         <v>0.88</v>
@@ -56322,7 +56322,7 @@
         <v>1.28</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU275" t="n">
         <v>1.35</v>
@@ -61194,7 +61194,7 @@
         <v>1.53</v>
       </c>
       <c r="AT299" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU299" t="n">
         <v>1.79</v>
@@ -63221,7 +63221,7 @@
         <v>1.8</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT309" t="n">
         <v>1.71</v>
@@ -63627,7 +63627,7 @@
         <v>1.27</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT311" t="n">
         <v>1.28</v>
@@ -64236,7 +64236,7 @@
         <v>1</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT314" t="n">
         <v>1.06</v>
@@ -65457,7 +65457,7 @@
         <v>1.53</v>
       </c>
       <c r="AT320" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU320" t="n">
         <v>1.56</v>
@@ -68093,7 +68093,7 @@
         <v>0.63</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT333" t="n">
         <v>0.61</v>
@@ -68299,7 +68299,7 @@
         <v>1.71</v>
       </c>
       <c r="AT334" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU334" t="n">
         <v>1.68</v>
@@ -71802,6 +71802,209 @@
       </c>
       <c r="BK351" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2982760</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>45051.64583333334</v>
+      </c>
+      <c r="F352" t="n">
+        <v>36</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>0</v>
+      </c>
+      <c r="J352" t="n">
+        <v>3</v>
+      </c>
+      <c r="K352" t="n">
+        <v>3</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M352" t="n">
+        <v>5</v>
+      </c>
+      <c r="N352" t="n">
+        <v>5</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>['5', '30', '45', '49', '87']</t>
+        </is>
+      </c>
+      <c r="Q352" t="n">
+        <v>8</v>
+      </c>
+      <c r="R352" t="n">
+        <v>3</v>
+      </c>
+      <c r="S352" t="n">
+        <v>11</v>
+      </c>
+      <c r="T352" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U352" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V352" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W352" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X352" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD352" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE352" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF352" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG352" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH352" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI352" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ352" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK352" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL352" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM352" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN352" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO352" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP352" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ352" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR352" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS352" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT352" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU352" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV352" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW352" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX352" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY352" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ352" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA352" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB352" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC352" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD352" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE352" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF352" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG352" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH352" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI352" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ352" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK352" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK360"/>
+  <dimension ref="A1:BK361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT2" t="n">
         <v>1.94</v>
@@ -4760,7 +4760,7 @@
         <v>2.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT30" t="n">
         <v>0.61</v>
@@ -6790,7 +6790,7 @@
         <v>1.56</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU31" t="n">
         <v>1.15</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT45" t="n">
         <v>0.78</v>
@@ -10444,7 +10444,7 @@
         <v>1.44</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU49" t="n">
         <v>1.68</v>
@@ -13489,7 +13489,7 @@
         <v>1.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU64" t="n">
         <v>1.93</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT69" t="n">
         <v>1.78</v>
@@ -17549,7 +17549,7 @@
         <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU84" t="n">
         <v>2.07</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT89" t="n">
         <v>1.28</v>
@@ -21809,7 +21809,7 @@
         <v>0.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT105" t="n">
         <v>0.83</v>
@@ -22827,7 +22827,7 @@
         <v>2.17</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU110" t="n">
         <v>1.87</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT125" t="n">
         <v>1.06</v>
@@ -26887,7 +26887,7 @@
         <v>1.61</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU130" t="n">
         <v>1.51</v>
@@ -27290,7 +27290,7 @@
         <v>0.67</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT132" t="n">
         <v>1.06</v>
@@ -31553,7 +31553,7 @@
         <v>1.29</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT153" t="n">
         <v>0.9399999999999999</v>
@@ -32368,7 +32368,7 @@
         <v>1.56</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU157" t="n">
         <v>1.15</v>
@@ -35413,7 +35413,7 @@
         <v>1.44</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU172" t="n">
         <v>1.55</v>
@@ -36628,7 +36628,7 @@
         <v>0.75</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT178" t="n">
         <v>0.89</v>
@@ -40691,7 +40691,7 @@
         <v>1.5</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU198" t="n">
         <v>1.43</v>
@@ -42718,7 +42718,7 @@
         <v>0.8</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT208" t="n">
         <v>0.83</v>
@@ -46172,7 +46172,7 @@
         <v>1.17</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU225" t="n">
         <v>1.56</v>
@@ -47387,7 +47387,7 @@
         <v>2</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT231" t="n">
         <v>1.78</v>
@@ -49826,7 +49826,7 @@
         <v>0.83</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU243" t="n">
         <v>1.46</v>
@@ -50838,7 +50838,7 @@
         <v>1.33</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT248" t="n">
         <v>1.28</v>
@@ -54086,7 +54086,7 @@
         <v>1.31</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT264" t="n">
         <v>1.11</v>
@@ -54292,7 +54292,7 @@
         <v>1.22</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU265" t="n">
         <v>1.76</v>
@@ -58552,7 +58552,7 @@
         <v>1.85</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT286" t="n">
         <v>1.67</v>
@@ -58758,7 +58758,7 @@
         <v>1.28</v>
       </c>
       <c r="AT287" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU287" t="n">
         <v>1.5</v>
@@ -62409,7 +62409,7 @@
         <v>1.07</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT305" t="n">
         <v>0.9399999999999999</v>
@@ -62615,7 +62615,7 @@
         <v>1.28</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU306" t="n">
         <v>1.49</v>
@@ -67284,7 +67284,7 @@
         <v>1.06</v>
       </c>
       <c r="AT329" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU329" t="n">
         <v>1.53</v>
@@ -67893,7 +67893,7 @@
         <v>1.61</v>
       </c>
       <c r="AT332" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU332" t="n">
         <v>1.71</v>
@@ -68296,7 +68296,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS334" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT334" t="n">
         <v>1</v>
@@ -73628,6 +73628,209 @@
         <v>13</v>
       </c>
       <c r="BK360" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2982759</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>45053.46875</v>
+      </c>
+      <c r="F361" t="n">
+        <v>36</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>2</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
+      <c r="K361" t="n">
+        <v>2</v>
+      </c>
+      <c r="L361" t="n">
+        <v>2</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N361" t="n">
+        <v>2</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>['11', '17']</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q361" t="n">
+        <v>4</v>
+      </c>
+      <c r="R361" t="n">
+        <v>6</v>
+      </c>
+      <c r="S361" t="n">
+        <v>10</v>
+      </c>
+      <c r="T361" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U361" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V361" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="W361" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X361" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC361" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD361" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE361" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF361" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG361" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH361" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI361" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ361" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK361" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL361" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM361" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN361" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO361" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP361" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ361" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR361" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS361" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT361" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU361" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV361" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW361" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX361" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY361" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ361" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA361" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB361" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC361" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD361" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE361" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF361" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG361" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH361" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI361" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ361" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK361" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK361"/>
+  <dimension ref="A1:BK370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>1.72</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT7" t="n">
         <v>1.78</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT9" t="n">
         <v>1.67</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT14" t="n">
         <v>0.89</v>
@@ -3542,7 +3542,7 @@
         <v>1.17</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.61</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT17" t="n">
         <v>1.28</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.56</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>1.44</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU24" t="n">
         <v>1.55</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT29" t="n">
         <v>1.78</v>
@@ -6587,7 +6587,7 @@
         <v>1.78</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT31" t="n">
         <v>0.83</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>2.09</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU33" t="n">
         <v>1.45</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT34" t="n">
         <v>0.89</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU35" t="n">
         <v>1.41</v>
@@ -8008,7 +8008,7 @@
         <v>1.61</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU37" t="n">
         <v>2.16</v>
@@ -8211,7 +8211,7 @@
         <v>1.61</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU38" t="n">
         <v>1.37</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT39" t="n">
         <v>0.9399999999999999</v>
@@ -8617,7 +8617,7 @@
         <v>2.17</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU40" t="n">
         <v>1.92</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT41" t="n">
         <v>1.11</v>
@@ -9226,7 +9226,7 @@
         <v>1.44</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -9632,7 +9632,7 @@
         <v>1.78</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU45" t="n">
         <v>1.64</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT47" t="n">
         <v>1.67</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>1.28</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT52" t="n">
         <v>0.9399999999999999</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU53" t="n">
         <v>1.34</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT54" t="n">
         <v>1.94</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT55" t="n">
         <v>0.89</v>
@@ -11865,7 +11865,7 @@
         <v>2.33</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU56" t="n">
         <v>2.25</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT57" t="n">
         <v>1.11</v>
@@ -12271,7 +12271,7 @@
         <v>1.61</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU58" t="n">
         <v>1.68</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU59" t="n">
         <v>1.11</v>
@@ -12677,7 +12677,7 @@
         <v>2.17</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.86</v>
@@ -12880,7 +12880,7 @@
         <v>1.61</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU61" t="n">
         <v>1.36</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT64" t="n">
         <v>0.83</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
         <v>1.78</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT66" t="n">
         <v>1.28</v>
@@ -14098,7 +14098,7 @@
         <v>1.22</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU67" t="n">
         <v>1.79</v>
@@ -14301,7 +14301,7 @@
         <v>1.44</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU68" t="n">
         <v>1.73</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT71" t="n">
         <v>1.28</v>
@@ -15313,7 +15313,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT73" t="n">
         <v>1.94</v>
@@ -15516,10 +15516,10 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>1.41</v>
@@ -15719,10 +15719,10 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU75" t="n">
         <v>1.66</v>
@@ -15925,7 +15925,7 @@
         <v>1.44</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -16128,7 +16128,7 @@
         <v>1.61</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU77" t="n">
         <v>1.43</v>
@@ -16534,7 +16534,7 @@
         <v>1.61</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,10 +16734,10 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU80" t="n">
         <v>1.64</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT81" t="n">
         <v>0.9399999999999999</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT82" t="n">
         <v>1.78</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU83" t="n">
         <v>1.51</v>
@@ -17546,7 +17546,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT84" t="n">
         <v>0.83</v>
@@ -18564,7 +18564,7 @@
         <v>1.78</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU89" t="n">
         <v>1.69</v>
@@ -18764,7 +18764,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT90" t="n">
         <v>1.28</v>
@@ -19170,10 +19170,10 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU92" t="n">
         <v>1.57</v>
@@ -19373,10 +19373,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU93" t="n">
         <v>1.44</v>
@@ -19579,7 +19579,7 @@
         <v>1.61</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU94" t="n">
         <v>1.74</v>
@@ -19779,7 +19779,7 @@
         <v>1.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT95" t="n">
         <v>1.28</v>
@@ -19982,7 +19982,7 @@
         <v>1.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT96" t="n">
         <v>0.9399999999999999</v>
@@ -20594,7 +20594,7 @@
         <v>1.72</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU99" t="n">
         <v>1.79</v>
@@ -20797,7 +20797,7 @@
         <v>1.44</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.54</v>
@@ -20997,7 +20997,7 @@
         <v>1.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT101" t="n">
         <v>1</v>
@@ -21200,10 +21200,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU102" t="n">
         <v>1.8</v>
@@ -21403,7 +21403,7 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT103" t="n">
         <v>1.28</v>
@@ -21606,7 +21606,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT104" t="n">
         <v>1.67</v>
@@ -22015,7 +22015,7 @@
         <v>1.44</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU106" t="n">
         <v>1.68</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT109" t="n">
         <v>1.11</v>
@@ -23030,7 +23030,7 @@
         <v>1.17</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU111" t="n">
         <v>1.68</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT112" t="n">
         <v>1</v>
@@ -23639,7 +23639,7 @@
         <v>1.44</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU114" t="n">
         <v>1.61</v>
@@ -23842,7 +23842,7 @@
         <v>1.22</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.78</v>
@@ -24042,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT116" t="n">
         <v>1.28</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT117" t="n">
         <v>1.94</v>
@@ -24451,7 +24451,7 @@
         <v>2.33</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -24654,7 +24654,7 @@
         <v>1.72</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -24854,7 +24854,7 @@
         <v>1.6</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT120" t="n">
         <v>1.28</v>
@@ -25260,7 +25260,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT122" t="n">
         <v>1.78</v>
@@ -25463,10 +25463,10 @@
         <v>1.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT124" t="n">
         <v>0.9399999999999999</v>
@@ -25872,7 +25872,7 @@
         <v>1.78</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU125" t="n">
         <v>1.48</v>
@@ -26075,7 +26075,7 @@
         <v>1.44</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU126" t="n">
         <v>1.67</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT127" t="n">
         <v>1.11</v>
@@ -26481,7 +26481,7 @@
         <v>1.56</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU128" t="n">
         <v>1.01</v>
@@ -26681,7 +26681,7 @@
         <v>1.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT129" t="n">
         <v>1.67</v>
@@ -27293,7 +27293,7 @@
         <v>1.78</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU132" t="n">
         <v>1.49</v>
@@ -27496,7 +27496,7 @@
         <v>1.44</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU133" t="n">
         <v>1.64</v>
@@ -28105,7 +28105,7 @@
         <v>1.22</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -28508,7 +28508,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT138" t="n">
         <v>0.89</v>
@@ -28711,7 +28711,7 @@
         <v>2</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT139" t="n">
         <v>1.94</v>
@@ -28914,7 +28914,7 @@
         <v>1.83</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT140" t="n">
         <v>1.28</v>
@@ -29320,10 +29320,10 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU142" t="n">
         <v>1.54</v>
@@ -29523,10 +29523,10 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU143" t="n">
         <v>1.77</v>
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU144" t="n">
         <v>1.43</v>
@@ -29929,7 +29929,7 @@
         <v>0.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT145" t="n">
         <v>0.83</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT146" t="n">
         <v>1.11</v>
@@ -30335,10 +30335,10 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU147" t="n">
         <v>1.47</v>
@@ -30541,7 +30541,7 @@
         <v>1.56</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU148" t="n">
         <v>1.1</v>
@@ -30744,7 +30744,7 @@
         <v>2.17</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU149" t="n">
         <v>1.74</v>
@@ -30944,7 +30944,7 @@
         <v>1.71</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT150" t="n">
         <v>1.78</v>
@@ -31147,10 +31147,10 @@
         <v>0.67</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU151" t="n">
         <v>1.47</v>
@@ -33380,10 +33380,10 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU162" t="n">
         <v>1.71</v>
@@ -33583,10 +33583,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU163" t="n">
         <v>1.56</v>
@@ -33786,10 +33786,10 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU164" t="n">
         <v>1.55</v>
@@ -33989,10 +33989,10 @@
         <v>1.63</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU165" t="n">
         <v>1.62</v>
@@ -34192,10 +34192,10 @@
         <v>1.25</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU166" t="n">
         <v>1.34</v>
@@ -34395,10 +34395,10 @@
         <v>1.13</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU167" t="n">
         <v>1.48</v>
@@ -34598,7 +34598,7 @@
         <v>1.88</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT168" t="n">
         <v>1.78</v>
@@ -34801,10 +34801,10 @@
         <v>1.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU169" t="n">
         <v>2.01</v>
@@ -35207,10 +35207,10 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU171" t="n">
         <v>1.41</v>
@@ -37440,10 +37440,10 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU182" t="n">
         <v>1.36</v>
@@ -37643,10 +37643,10 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU183" t="n">
         <v>1.59</v>
@@ -37846,10 +37846,10 @@
         <v>1.11</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU184" t="n">
         <v>1.39</v>
@@ -38049,7 +38049,7 @@
         <v>1</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT185" t="n">
         <v>1.11</v>
@@ -38252,10 +38252,10 @@
         <v>1.25</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU186" t="n">
         <v>1.56</v>
@@ -38455,10 +38455,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU187" t="n">
         <v>1.41</v>
@@ -38658,10 +38658,10 @@
         <v>1.78</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU188" t="n">
         <v>1.34</v>
@@ -38861,10 +38861,10 @@
         <v>0.67</v>
       </c>
       <c r="AS189" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU189" t="n">
         <v>1.83</v>
@@ -39067,7 +39067,7 @@
         <v>2.33</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU190" t="n">
         <v>1.87</v>
@@ -39267,7 +39267,7 @@
         <v>1.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT191" t="n">
         <v>1.78</v>
@@ -39676,7 +39676,7 @@
         <v>1.44</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU193" t="n">
         <v>1.42</v>
@@ -39879,7 +39879,7 @@
         <v>1.17</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU194" t="n">
         <v>1.51</v>
@@ -40079,7 +40079,7 @@
         <v>0.78</v>
       </c>
       <c r="AS195" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT195" t="n">
         <v>0.83</v>
@@ -40282,10 +40282,10 @@
         <v>1.22</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU196" t="n">
         <v>1.89</v>
@@ -40488,7 +40488,7 @@
         <v>2.33</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU197" t="n">
         <v>1.87</v>
@@ -40688,7 +40688,7 @@
         <v>1</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT198" t="n">
         <v>0.83</v>
@@ -41703,7 +41703,7 @@
         <v>1.9</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT203" t="n">
         <v>1.78</v>
@@ -41906,7 +41906,7 @@
         <v>1.5</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT204" t="n">
         <v>1.28</v>
@@ -42112,7 +42112,7 @@
         <v>1.61</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU205" t="n">
         <v>1.83</v>
@@ -42312,7 +42312,7 @@
         <v>1.2</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT206" t="n">
         <v>1.11</v>
@@ -42518,7 +42518,7 @@
         <v>1.44</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU207" t="n">
         <v>1.59</v>
@@ -42721,7 +42721,7 @@
         <v>1.78</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU208" t="n">
         <v>1.8</v>
@@ -42921,7 +42921,7 @@
         <v>1.56</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT209" t="n">
         <v>1.67</v>
@@ -43327,7 +43327,7 @@
         <v>1.6</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT211" t="n">
         <v>1.78</v>
@@ -43530,7 +43530,7 @@
         <v>1.2</v>
       </c>
       <c r="AS212" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT212" t="n">
         <v>0.89</v>
@@ -43733,10 +43733,10 @@
         <v>0.73</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU213" t="n">
         <v>1.87</v>
@@ -43936,7 +43936,7 @@
         <v>0.7</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT214" t="n">
         <v>0.83</v>
@@ -44142,7 +44142,7 @@
         <v>1.56</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU215" t="n">
         <v>1.3</v>
@@ -44342,10 +44342,10 @@
         <v>1.9</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU216" t="n">
         <v>1.4</v>
@@ -44548,7 +44548,7 @@
         <v>1.61</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU217" t="n">
         <v>1.59</v>
@@ -44748,10 +44748,10 @@
         <v>1.09</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU218" t="n">
         <v>1.5</v>
@@ -45154,10 +45154,10 @@
         <v>1</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU220" t="n">
         <v>1.31</v>
@@ -45763,7 +45763,7 @@
         <v>1.73</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT223" t="n">
         <v>1.94</v>
@@ -46372,7 +46372,7 @@
         <v>1.2</v>
       </c>
       <c r="AS226" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT226" t="n">
         <v>1.28</v>
@@ -46781,7 +46781,7 @@
         <v>1.56</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU228" t="n">
         <v>1.31</v>
@@ -46981,7 +46981,7 @@
         <v>1.73</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT229" t="n">
         <v>1.78</v>
@@ -47187,7 +47187,7 @@
         <v>1.72</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU230" t="n">
         <v>1.62</v>
@@ -47593,7 +47593,7 @@
         <v>2.17</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU232" t="n">
         <v>1.74</v>
@@ -47996,7 +47996,7 @@
         <v>1.09</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT234" t="n">
         <v>0.89</v>
@@ -48199,7 +48199,7 @@
         <v>0.91</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT235" t="n">
         <v>0.83</v>
@@ -48402,10 +48402,10 @@
         <v>1.08</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU236" t="n">
         <v>1.3</v>
@@ -48605,7 +48605,7 @@
         <v>1.27</v>
       </c>
       <c r="AS237" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT237" t="n">
         <v>0.9399999999999999</v>
@@ -48811,7 +48811,7 @@
         <v>2.33</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU238" t="n">
         <v>1.77</v>
@@ -49014,7 +49014,7 @@
         <v>1.61</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU239" t="n">
         <v>1.59</v>
@@ -49214,10 +49214,10 @@
         <v>0.92</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU240" t="n">
         <v>1.42</v>
@@ -49417,10 +49417,10 @@
         <v>0.55</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU241" t="n">
         <v>1.82</v>
@@ -49823,7 +49823,7 @@
         <v>0.82</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT243" t="n">
         <v>0.83</v>
@@ -50029,7 +50029,7 @@
         <v>1.22</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU244" t="n">
         <v>1.79</v>
@@ -50432,7 +50432,7 @@
         <v>0.92</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT246" t="n">
         <v>0.83</v>
@@ -51041,7 +51041,7 @@
         <v>0.73</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT249" t="n">
         <v>1</v>
@@ -51247,7 +51247,7 @@
         <v>1.17</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU250" t="n">
         <v>1.65</v>
@@ -51653,7 +51653,7 @@
         <v>2.33</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU252" t="n">
         <v>1.81</v>
@@ -51856,7 +51856,7 @@
         <v>1.44</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU253" t="n">
         <v>1.61</v>
@@ -52059,7 +52059,7 @@
         <v>1.61</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU254" t="n">
         <v>1.57</v>
@@ -52259,7 +52259,7 @@
         <v>0.75</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT255" t="n">
         <v>1</v>
@@ -52465,7 +52465,7 @@
         <v>1.61</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU256" t="n">
         <v>1.84</v>
@@ -52665,10 +52665,10 @@
         <v>1.08</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU257" t="n">
         <v>1.35</v>
@@ -52868,10 +52868,10 @@
         <v>0.5</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU258" t="n">
         <v>1.66</v>
@@ -53071,7 +53071,7 @@
         <v>1.83</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT259" t="n">
         <v>1.94</v>
@@ -53477,7 +53477,7 @@
         <v>1.17</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT261" t="n">
         <v>0.9399999999999999</v>
@@ -53683,7 +53683,7 @@
         <v>1.72</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU262" t="n">
         <v>1.59</v>
@@ -53886,7 +53886,7 @@
         <v>1.56</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU263" t="n">
         <v>1.38</v>
@@ -54492,7 +54492,7 @@
         <v>1.75</v>
       </c>
       <c r="AS266" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT266" t="n">
         <v>1.67</v>
@@ -54898,7 +54898,7 @@
         <v>1.33</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT268" t="n">
         <v>1.28</v>
@@ -55304,7 +55304,7 @@
         <v>1.77</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT270" t="n">
         <v>1.78</v>
@@ -55507,7 +55507,7 @@
         <v>1.77</v>
       </c>
       <c r="AS271" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT271" t="n">
         <v>1.78</v>
@@ -55713,7 +55713,7 @@
         <v>1.44</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU272" t="n">
         <v>1.58</v>
@@ -55916,7 +55916,7 @@
         <v>1.61</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU273" t="n">
         <v>1.83</v>
@@ -56116,10 +56116,10 @@
         <v>1.14</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU274" t="n">
         <v>1.62</v>
@@ -56319,7 +56319,7 @@
         <v>0.77</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT275" t="n">
         <v>1</v>
@@ -56522,10 +56522,10 @@
         <v>1.14</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU276" t="n">
         <v>1.71</v>
@@ -56725,7 +56725,7 @@
         <v>1.92</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT277" t="n">
         <v>1.94</v>
@@ -56928,10 +56928,10 @@
         <v>0.79</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU278" t="n">
         <v>1.38</v>
@@ -57540,7 +57540,7 @@
         <v>2.17</v>
       </c>
       <c r="AT281" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU281" t="n">
         <v>1.75</v>
@@ -57740,7 +57740,7 @@
         <v>1.57</v>
       </c>
       <c r="AS282" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT282" t="n">
         <v>1.28</v>
@@ -57943,7 +57943,7 @@
         <v>0.93</v>
       </c>
       <c r="AS283" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT283" t="n">
         <v>0.83</v>
@@ -58149,7 +58149,7 @@
         <v>1.22</v>
       </c>
       <c r="AT284" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU284" t="n">
         <v>1.73</v>
@@ -58755,7 +58755,7 @@
         <v>0.77</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT287" t="n">
         <v>0.83</v>
@@ -58958,7 +58958,7 @@
         <v>1.86</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT288" t="n">
         <v>1.78</v>
@@ -59367,7 +59367,7 @@
         <v>2.17</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU290" t="n">
         <v>1.79</v>
@@ -59570,7 +59570,7 @@
         <v>1.72</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU291" t="n">
         <v>1.6</v>
@@ -59770,7 +59770,7 @@
         <v>0.86</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT292" t="n">
         <v>0.89</v>
@@ -60179,7 +60179,7 @@
         <v>2.33</v>
       </c>
       <c r="AT294" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU294" t="n">
         <v>1.84</v>
@@ -60379,7 +60379,7 @@
         <v>1.71</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT295" t="n">
         <v>1.78</v>
@@ -60585,7 +60585,7 @@
         <v>1.22</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU296" t="n">
         <v>1.74</v>
@@ -60785,7 +60785,7 @@
         <v>1.14</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT297" t="n">
         <v>1.28</v>
@@ -60988,10 +60988,10 @@
         <v>1.29</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT298" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU298" t="n">
         <v>1.67</v>
@@ -61600,7 +61600,7 @@
         <v>2.17</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU301" t="n">
         <v>1.8</v>
@@ -61800,7 +61800,7 @@
         <v>0.93</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT302" t="n">
         <v>0.83</v>
@@ -62003,10 +62003,10 @@
         <v>0.87</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT303" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU303" t="n">
         <v>1.58</v>
@@ -62412,7 +62412,7 @@
         <v>1.78</v>
       </c>
       <c r="AT305" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU305" t="n">
         <v>1.71</v>
@@ -62612,7 +62612,7 @@
         <v>0.79</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT306" t="n">
         <v>0.83</v>
@@ -62815,7 +62815,7 @@
         <v>1.79</v>
       </c>
       <c r="AS307" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT307" t="n">
         <v>1.67</v>
@@ -63018,7 +63018,7 @@
         <v>1.07</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT308" t="n">
         <v>0.9399999999999999</v>
@@ -63427,7 +63427,7 @@
         <v>1.44</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU310" t="n">
         <v>1.52</v>
@@ -63630,7 +63630,7 @@
         <v>1.17</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU311" t="n">
         <v>1.64</v>
@@ -63830,7 +63830,7 @@
         <v>0.8</v>
       </c>
       <c r="AS312" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT312" t="n">
         <v>0.89</v>
@@ -64033,7 +64033,7 @@
         <v>1.87</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT313" t="n">
         <v>1.94</v>
@@ -64239,7 +64239,7 @@
         <v>1.17</v>
       </c>
       <c r="AT314" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU314" t="n">
         <v>1.61</v>
@@ -64848,7 +64848,7 @@
         <v>1.22</v>
       </c>
       <c r="AT317" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU317" t="n">
         <v>1.74</v>
@@ -65048,10 +65048,10 @@
         <v>0.88</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU318" t="n">
         <v>1.37</v>
@@ -65251,7 +65251,7 @@
         <v>1.8</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT319" t="n">
         <v>1.78</v>
@@ -65660,7 +65660,7 @@
         <v>1.72</v>
       </c>
       <c r="AT321" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU321" t="n">
         <v>1.6</v>
@@ -65863,7 +65863,7 @@
         <v>1.44</v>
       </c>
       <c r="AT322" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU322" t="n">
         <v>1.53</v>
@@ -66063,10 +66063,10 @@
         <v>1</v>
       </c>
       <c r="AS323" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT323" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU323" t="n">
         <v>1.51</v>
@@ -66266,7 +66266,7 @@
         <v>1.73</v>
       </c>
       <c r="AS324" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT324" t="n">
         <v>1.67</v>
@@ -66469,7 +66469,7 @@
         <v>0.88</v>
       </c>
       <c r="AS325" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT325" t="n">
         <v>0.83</v>
@@ -66672,10 +66672,10 @@
         <v>1.38</v>
       </c>
       <c r="AS326" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT326" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU326" t="n">
         <v>1.4</v>
@@ -66878,7 +66878,7 @@
         <v>1.56</v>
       </c>
       <c r="AT327" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU327" t="n">
         <v>1.42</v>
@@ -67081,7 +67081,7 @@
         <v>2.17</v>
       </c>
       <c r="AT328" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU328" t="n">
         <v>1.78</v>
@@ -67281,7 +67281,7 @@
         <v>0.73</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT329" t="n">
         <v>0.83</v>
@@ -67484,7 +67484,7 @@
         <v>1.75</v>
       </c>
       <c r="AS330" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT330" t="n">
         <v>1.78</v>
@@ -68096,7 +68096,7 @@
         <v>1.17</v>
       </c>
       <c r="AT333" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU333" t="n">
         <v>1.58</v>
@@ -68905,7 +68905,7 @@
         <v>1.38</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT337" t="n">
         <v>1.28</v>
@@ -69920,10 +69920,10 @@
         <v>0.82</v>
       </c>
       <c r="AS342" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT342" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU342" t="n">
         <v>1.74</v>
@@ -70123,10 +70123,10 @@
         <v>0.82</v>
       </c>
       <c r="AS343" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT343" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU343" t="n">
         <v>1.55</v>
@@ -70326,10 +70326,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS344" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT344" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU344" t="n">
         <v>1.6</v>
@@ -70529,7 +70529,7 @@
         <v>1.18</v>
       </c>
       <c r="AS345" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT345" t="n">
         <v>1.11</v>
@@ -70732,10 +70732,10 @@
         <v>1.06</v>
       </c>
       <c r="AS346" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT346" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU346" t="n">
         <v>1.68</v>
@@ -70935,10 +70935,10 @@
         <v>1.29</v>
       </c>
       <c r="AS347" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AT347" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU347" t="n">
         <v>1.43</v>
@@ -71138,10 +71138,10 @@
         <v>0.65</v>
       </c>
       <c r="AS348" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT348" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="AU348" t="n">
         <v>1.38</v>
@@ -71341,7 +71341,7 @@
         <v>1.82</v>
       </c>
       <c r="AS349" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT349" t="n">
         <v>1.78</v>
@@ -71544,10 +71544,10 @@
         <v>1.12</v>
       </c>
       <c r="AS350" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT350" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU350" t="n">
         <v>1.52</v>
@@ -71750,7 +71750,7 @@
         <v>2.33</v>
       </c>
       <c r="AT351" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU351" t="n">
         <v>1.82</v>
@@ -73831,6 +73831,1833 @@
         <v>8</v>
       </c>
       <c r="BK361" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2982773</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>45059.375</v>
+      </c>
+      <c r="F362" t="n">
+        <v>37</v>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>2</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
+      <c r="K362" t="n">
+        <v>2</v>
+      </c>
+      <c r="L362" t="n">
+        <v>3</v>
+      </c>
+      <c r="M362" t="n">
+        <v>2</v>
+      </c>
+      <c r="N362" t="n">
+        <v>5</v>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>['26', '42', '60']</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>['64', '78']</t>
+        </is>
+      </c>
+      <c r="Q362" t="n">
+        <v>6</v>
+      </c>
+      <c r="R362" t="n">
+        <v>6</v>
+      </c>
+      <c r="S362" t="n">
+        <v>12</v>
+      </c>
+      <c r="T362" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U362" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V362" t="n">
+        <v>4</v>
+      </c>
+      <c r="W362" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X362" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB362" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC362" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD362" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE362" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF362" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG362" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH362" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI362" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ362" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK362" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL362" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM362" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN362" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO362" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP362" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ362" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AR362" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS362" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT362" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU362" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV362" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW362" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX362" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY362" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ362" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA362" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB362" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC362" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD362" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE362" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF362" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG362" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH362" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI362" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ362" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK362" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2982772</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>45059.375</v>
+      </c>
+      <c r="F363" t="n">
+        <v>37</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="n">
+        <v>1</v>
+      </c>
+      <c r="N363" t="n">
+        <v>2</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q363" t="n">
+        <v>3</v>
+      </c>
+      <c r="R363" t="n">
+        <v>2</v>
+      </c>
+      <c r="S363" t="n">
+        <v>5</v>
+      </c>
+      <c r="T363" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U363" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V363" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W363" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X363" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB363" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC363" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD363" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE363" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF363" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG363" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH363" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI363" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ363" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK363" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL363" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM363" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN363" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO363" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP363" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ363" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR363" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS363" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT363" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AU363" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV363" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW363" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX363" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY363" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ363" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA363" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB363" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC363" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD363" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE363" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF363" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG363" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH363" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI363" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ363" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK363" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2982771</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>45059.375</v>
+      </c>
+      <c r="F364" t="n">
+        <v>37</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>0</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M364" t="n">
+        <v>1</v>
+      </c>
+      <c r="N364" t="n">
+        <v>1</v>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q364" t="n">
+        <v>5</v>
+      </c>
+      <c r="R364" t="n">
+        <v>6</v>
+      </c>
+      <c r="S364" t="n">
+        <v>11</v>
+      </c>
+      <c r="T364" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U364" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V364" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W364" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X364" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB364" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC364" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD364" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE364" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF364" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG364" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH364" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI364" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ364" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK364" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL364" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM364" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN364" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO364" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP364" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ364" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR364" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS364" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT364" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AU364" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV364" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW364" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX364" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AY364" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ364" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA364" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB364" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC364" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD364" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE364" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF364" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG364" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH364" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI364" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ364" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK364" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2982768</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>45059.375</v>
+      </c>
+      <c r="F365" t="n">
+        <v>37</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>1</v>
+      </c>
+      <c r="J365" t="n">
+        <v>1</v>
+      </c>
+      <c r="K365" t="n">
+        <v>2</v>
+      </c>
+      <c r="L365" t="n">
+        <v>2</v>
+      </c>
+      <c r="M365" t="n">
+        <v>1</v>
+      </c>
+      <c r="N365" t="n">
+        <v>3</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>['25', '64']</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q365" t="n">
+        <v>7</v>
+      </c>
+      <c r="R365" t="n">
+        <v>9</v>
+      </c>
+      <c r="S365" t="n">
+        <v>16</v>
+      </c>
+      <c r="T365" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U365" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V365" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W365" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X365" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB365" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC365" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD365" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE365" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF365" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG365" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH365" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI365" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ365" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK365" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL365" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM365" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN365" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO365" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP365" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ365" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR365" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS365" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AT365" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU365" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV365" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW365" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX365" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY365" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ365" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA365" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB365" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC365" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD365" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE365" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF365" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG365" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH365" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI365" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ365" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK365" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2982769</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="n">
+        <v>45059.375</v>
+      </c>
+      <c r="F366" t="n">
+        <v>37</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>0</v>
+      </c>
+      <c r="J366" t="n">
+        <v>1</v>
+      </c>
+      <c r="K366" t="n">
+        <v>1</v>
+      </c>
+      <c r="L366" t="n">
+        <v>3</v>
+      </c>
+      <c r="M366" t="n">
+        <v>1</v>
+      </c>
+      <c r="N366" t="n">
+        <v>4</v>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>['62', '70', '77']</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q366" t="n">
+        <v>6</v>
+      </c>
+      <c r="R366" t="n">
+        <v>3</v>
+      </c>
+      <c r="S366" t="n">
+        <v>9</v>
+      </c>
+      <c r="T366" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U366" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V366" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W366" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X366" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB366" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC366" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD366" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE366" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF366" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG366" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH366" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI366" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ366" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK366" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL366" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM366" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN366" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO366" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP366" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ366" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR366" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS366" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT366" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AU366" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV366" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW366" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX366" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY366" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ366" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA366" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB366" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC366" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD366" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE366" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF366" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG366" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH366" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI366" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ366" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK366" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2982766</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E367" s="2" t="n">
+        <v>45059.375</v>
+      </c>
+      <c r="F367" t="n">
+        <v>37</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>2</v>
+      </c>
+      <c r="J367" t="n">
+        <v>1</v>
+      </c>
+      <c r="K367" t="n">
+        <v>3</v>
+      </c>
+      <c r="L367" t="n">
+        <v>2</v>
+      </c>
+      <c r="M367" t="n">
+        <v>1</v>
+      </c>
+      <c r="N367" t="n">
+        <v>3</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>['30', '45+2']</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q367" t="n">
+        <v>7</v>
+      </c>
+      <c r="R367" t="n">
+        <v>2</v>
+      </c>
+      <c r="S367" t="n">
+        <v>9</v>
+      </c>
+      <c r="T367" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U367" t="n">
+        <v>2</v>
+      </c>
+      <c r="V367" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W367" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X367" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB367" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC367" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD367" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE367" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF367" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG367" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH367" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI367" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ367" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK367" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL367" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM367" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN367" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO367" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP367" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ367" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR367" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS367" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT367" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU367" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV367" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW367" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX367" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY367" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ367" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA367" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB367" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC367" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD367" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE367" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF367" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG367" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH367" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI367" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ367" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK367" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2982765</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E368" s="2" t="n">
+        <v>45059.375</v>
+      </c>
+      <c r="F368" t="n">
+        <v>37</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>1</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
+      <c r="K368" t="n">
+        <v>1</v>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>1</v>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q368" t="n">
+        <v>1</v>
+      </c>
+      <c r="R368" t="n">
+        <v>8</v>
+      </c>
+      <c r="S368" t="n">
+        <v>9</v>
+      </c>
+      <c r="T368" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U368" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V368" t="n">
+        <v>4</v>
+      </c>
+      <c r="W368" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X368" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB368" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC368" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD368" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE368" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF368" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG368" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH368" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI368" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ368" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK368" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL368" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM368" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN368" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO368" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP368" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ368" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR368" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS368" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT368" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU368" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV368" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW368" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX368" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY368" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ368" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA368" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB368" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC368" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD368" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE368" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF368" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG368" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH368" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI368" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ368" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK368" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2982764</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E369" s="2" t="n">
+        <v>45059.375</v>
+      </c>
+      <c r="F369" t="n">
+        <v>37</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>1</v>
+      </c>
+      <c r="J369" t="n">
+        <v>1</v>
+      </c>
+      <c r="K369" t="n">
+        <v>2</v>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="n">
+        <v>1</v>
+      </c>
+      <c r="N369" t="n">
+        <v>2</v>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q369" t="n">
+        <v>7</v>
+      </c>
+      <c r="R369" t="n">
+        <v>7</v>
+      </c>
+      <c r="S369" t="n">
+        <v>14</v>
+      </c>
+      <c r="T369" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U369" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V369" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W369" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X369" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA369" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB369" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC369" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD369" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE369" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF369" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG369" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH369" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI369" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ369" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK369" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL369" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM369" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN369" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO369" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP369" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ369" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AR369" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AS369" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT369" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU369" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV369" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW369" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX369" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY369" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ369" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA369" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB369" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC369" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD369" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE369" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF369" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG369" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH369" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI369" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ369" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK369" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2982767</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E370" s="2" t="n">
+        <v>45059.375</v>
+      </c>
+      <c r="F370" t="n">
+        <v>37</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>0</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="n">
+        <v>1</v>
+      </c>
+      <c r="N370" t="n">
+        <v>2</v>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q370" t="n">
+        <v>3</v>
+      </c>
+      <c r="R370" t="n">
+        <v>5</v>
+      </c>
+      <c r="S370" t="n">
+        <v>8</v>
+      </c>
+      <c r="T370" t="n">
+        <v>3</v>
+      </c>
+      <c r="U370" t="n">
+        <v>2</v>
+      </c>
+      <c r="V370" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W370" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X370" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA370" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB370" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC370" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD370" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE370" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF370" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG370" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH370" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI370" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ370" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK370" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL370" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM370" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN370" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO370" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP370" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ370" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AR370" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS370" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT370" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU370" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV370" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW370" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX370" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY370" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ370" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA370" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB370" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC370" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD370" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE370" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF370" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG370" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH370" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI370" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ370" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK370" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK370"/>
+  <dimension ref="A1:BK371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.37</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT21" t="n">
         <v>0.83</v>
@@ -5775,7 +5775,7 @@
         <v>1.44</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU26" t="n">
         <v>1.77</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT36" t="n">
         <v>0.83</v>
@@ -9023,7 +9023,7 @@
         <v>1.72</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU42" t="n">
         <v>1.67</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT56" t="n">
         <v>0.89</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU65" t="n">
         <v>1.76</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT78" t="n">
         <v>0.89</v>
@@ -17955,7 +17955,7 @@
         <v>1.56</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU86" t="n">
         <v>1.17</v>
@@ -20185,7 +20185,7 @@
         <v>2.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT97" t="n">
         <v>1.94</v>
@@ -20391,7 +20391,7 @@
         <v>1.61</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU98" t="n">
         <v>1.51</v>
@@ -24448,7 +24448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT118" t="n">
         <v>0.79</v>
@@ -25060,7 +25060,7 @@
         <v>1.61</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU121" t="n">
         <v>2.12</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT135" t="n">
         <v>1</v>
@@ -28308,7 +28308,7 @@
         <v>1.17</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -34601,7 +34601,7 @@
         <v>1.26</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU168" t="n">
         <v>1.37</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT170" t="n">
         <v>1.11</v>
@@ -39064,7 +39064,7 @@
         <v>1.22</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT190" t="n">
         <v>0.74</v>
@@ -39270,7 +39270,7 @@
         <v>1.58</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU191" t="n">
         <v>1.92</v>
@@ -40485,7 +40485,7 @@
         <v>1.3</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -41706,7 +41706,7 @@
         <v>0.95</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU203" t="n">
         <v>1.46</v>
@@ -45357,7 +45357,7 @@
         <v>1.4</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT221" t="n">
         <v>0.9399999999999999</v>
@@ -47390,7 +47390,7 @@
         <v>1.78</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU231" t="n">
         <v>1.74</v>
@@ -48808,7 +48808,7 @@
         <v>1.08</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT238" t="n">
         <v>1.05</v>
@@ -51450,7 +51450,7 @@
         <v>1.44</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU251" t="n">
         <v>1.66</v>
@@ -51650,7 +51650,7 @@
         <v>1</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT252" t="n">
         <v>1.37</v>
@@ -55510,7 +55510,7 @@
         <v>2.05</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU271" t="n">
         <v>1.83</v>
@@ -57131,7 +57131,7 @@
         <v>1.23</v>
       </c>
       <c r="AS279" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT279" t="n">
         <v>1.28</v>
@@ -60176,7 +60176,7 @@
         <v>0.43</v>
       </c>
       <c r="AS294" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT294" t="n">
         <v>0.63</v>
@@ -60382,7 +60382,7 @@
         <v>1.26</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU295" t="n">
         <v>1.37</v>
@@ -64439,7 +64439,7 @@
         <v>1.47</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT315" t="n">
         <v>1.28</v>
@@ -65254,7 +65254,7 @@
         <v>1.63</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU319" t="n">
         <v>1.62</v>
@@ -68502,7 +68502,7 @@
         <v>1.22</v>
       </c>
       <c r="AT335" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU335" t="n">
         <v>1.72</v>
@@ -68702,7 +68702,7 @@
         <v>1.63</v>
       </c>
       <c r="AS336" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT336" t="n">
         <v>1.67</v>
@@ -71344,7 +71344,7 @@
         <v>1.47</v>
       </c>
       <c r="AT349" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AU349" t="n">
         <v>1.38</v>
@@ -71747,7 +71747,7 @@
         <v>1.35</v>
       </c>
       <c r="AS351" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT351" t="n">
         <v>1.21</v>
@@ -74019,22 +74019,22 @@
         <v>2.85</v>
       </c>
       <c r="BF362" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG362" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH362" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI362" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BJ362" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BK362" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="363">
@@ -74231,13 +74231,13 @@
         <v>4</v>
       </c>
       <c r="BI363" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BJ363" t="n">
         <v>9</v>
       </c>
       <c r="BK363" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364">
@@ -74428,19 +74428,19 @@
         <v>6</v>
       </c>
       <c r="BG364" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH364" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BI364" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BJ364" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BK364" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="365">
@@ -74628,22 +74628,22 @@
         <v>3.5</v>
       </c>
       <c r="BF365" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG365" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH365" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BI365" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BJ365" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK365" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="366">
@@ -74831,22 +74831,22 @@
         <v>2.5</v>
       </c>
       <c r="BF366" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG366" t="n">
         <v>6</v>
       </c>
-      <c r="BG366" t="n">
-        <v>3</v>
-      </c>
       <c r="BH366" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BI366" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ366" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="BK366" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="367">
@@ -75034,22 +75034,22 @@
         <v>3</v>
       </c>
       <c r="BF367" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG367" t="n">
         <v>5</v>
       </c>
-      <c r="BG367" t="n">
-        <v>6</v>
-      </c>
       <c r="BH367" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI367" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="BJ367" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK367" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="368">
@@ -75237,22 +75237,22 @@
         <v>3.25</v>
       </c>
       <c r="BF368" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG368" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH368" t="n">
         <v>7</v>
       </c>
-      <c r="BH368" t="n">
-        <v>6</v>
-      </c>
       <c r="BI368" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BJ368" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BK368" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="369">
@@ -75443,13 +75443,13 @@
         <v>7</v>
       </c>
       <c r="BG369" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH369" t="n">
         <v>11</v>
       </c>
       <c r="BI369" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ369" t="n">
         <v>18</v>
@@ -75643,22 +75643,225 @@
         <v>3</v>
       </c>
       <c r="BF370" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG370" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH370" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI370" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ370" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK370" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="n">
+        <v>2982770</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E371" s="2" t="n">
+        <v>45059.46875</v>
+      </c>
+      <c r="F371" t="n">
+        <v>37</v>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>2</v>
+      </c>
+      <c r="J371" t="n">
+        <v>1</v>
+      </c>
+      <c r="K371" t="n">
+        <v>3</v>
+      </c>
+      <c r="L371" t="n">
+        <v>3</v>
+      </c>
+      <c r="M371" t="n">
+        <v>2</v>
+      </c>
+      <c r="N371" t="n">
+        <v>5</v>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>['29', '45+1', '77']</t>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>['14', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q371" t="n">
+        <v>4</v>
+      </c>
+      <c r="R371" t="n">
+        <v>1</v>
+      </c>
+      <c r="S371" t="n">
+        <v>5</v>
+      </c>
+      <c r="T371" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U371" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V371" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W371" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X371" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z371" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA371" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB371" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC371" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD371" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE371" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF371" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG371" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH371" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI371" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ371" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK371" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL371" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM371" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN371" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO371" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP371" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ371" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR371" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS371" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AT371" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AU371" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV371" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW371" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX371" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY371" t="n">
         <v>8</v>
       </c>
-      <c r="BG370" t="n">
+      <c r="AZ371" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA371" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB371" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC371" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD371" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE371" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF371" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG371" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH371" t="n">
         <v>7</v>
       </c>
-      <c r="BH370" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI370" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ370" t="n">
+      <c r="BI371" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ371" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK371" t="n">
         <v>10</v>
-      </c>
-      <c r="BK370" t="n">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="424">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -922,6 +922,9 @@
     <t>['68', '85', '89']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['11', '35']</t>
   </si>
   <si>
@@ -1280,6 +1283,9 @@
   </si>
   <si>
     <t>['10', '26']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK389"/>
+  <dimension ref="A1:BK390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1885,7 +1891,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1975,7 +1981,7 @@
         <v>1.8</v>
       </c>
       <c r="AT2">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2076,7 +2082,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -3413,7 +3419,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3604,7 +3610,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -4837,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT17">
         <v>1.05</v>
@@ -4941,7 +4947,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -5132,7 +5138,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -5896,7 +5902,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q23">
         <v>12</v>
@@ -6660,7 +6666,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q27">
         <v>9</v>
@@ -6750,7 +6756,7 @@
         <v>1.26</v>
       </c>
       <c r="AT27">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU27">
         <v>1.03</v>
@@ -7233,7 +7239,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7702,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -7806,7 +7812,7 @@
         <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -8188,7 +8194,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8379,7 +8385,7 @@
         <v>90</v>
       </c>
       <c r="P36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8952,7 +8958,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -9143,7 +9149,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9334,7 +9340,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9806,7 +9812,7 @@
         <v>1.55</v>
       </c>
       <c r="AT43">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU43">
         <v>1.46</v>
@@ -9907,7 +9913,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -10289,7 +10295,7 @@
         <v>90</v>
       </c>
       <c r="P46" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10480,7 +10486,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -10862,7 +10868,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -11626,7 +11632,7 @@
         <v>92</v>
       </c>
       <c r="P53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11904,10 +11910,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT54">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU54">
         <v>2.56</v>
@@ -12008,7 +12014,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -13536,7 +13542,7 @@
         <v>90</v>
       </c>
       <c r="P63" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -14300,7 +14306,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14491,7 +14497,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14578,7 +14584,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT68">
         <v>1.15</v>
@@ -14682,7 +14688,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14873,7 +14879,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -15446,7 +15452,7 @@
         <v>99</v>
       </c>
       <c r="P73" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15828,7 +15834,7 @@
         <v>104</v>
       </c>
       <c r="P75" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q75">
         <v>9</v>
@@ -15918,7 +15924,7 @@
         <v>1.37</v>
       </c>
       <c r="AT75">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU75">
         <v>1.66</v>
@@ -16974,7 +16980,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17165,7 +17171,7 @@
         <v>120</v>
       </c>
       <c r="P82" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17547,7 +17553,7 @@
         <v>142</v>
       </c>
       <c r="P84" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17825,7 +17831,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT85">
         <v>0.8</v>
@@ -18120,7 +18126,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18502,7 +18508,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18693,7 +18699,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18884,7 +18890,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -19165,7 +19171,7 @@
         <v>2.37</v>
       </c>
       <c r="AT92">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU92">
         <v>2.02</v>
@@ -19839,7 +19845,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -20030,7 +20036,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -20221,7 +20227,7 @@
         <v>124</v>
       </c>
       <c r="P98" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20603,7 +20609,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -21454,7 +21460,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT104">
         <v>1.15</v>
@@ -21558,7 +21564,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -22322,7 +22328,7 @@
         <v>90</v>
       </c>
       <c r="P109" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -22704,7 +22710,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22895,7 +22901,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -23749,7 +23755,7 @@
         <v>0.95</v>
       </c>
       <c r="AT116">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU116">
         <v>1.45</v>
@@ -24996,7 +25002,7 @@
         <v>162</v>
       </c>
       <c r="P123" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -25569,7 +25575,7 @@
         <v>162</v>
       </c>
       <c r="P126" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q126">
         <v>1</v>
@@ -25760,7 +25766,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -26038,7 +26044,7 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT128">
         <v>1.11</v>
@@ -26142,7 +26148,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -26715,7 +26721,7 @@
         <v>168</v>
       </c>
       <c r="P132" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -27097,7 +27103,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27288,7 +27294,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q135">
         <v>1</v>
@@ -27670,7 +27676,7 @@
         <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27951,7 +27957,7 @@
         <v>1.63</v>
       </c>
       <c r="AT138">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU138">
         <v>1.58</v>
@@ -28903,7 +28909,7 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT143">
         <v>1.3</v>
@@ -29007,7 +29013,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -29198,7 +29204,7 @@
         <v>90</v>
       </c>
       <c r="P145" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29962,7 +29968,7 @@
         <v>178</v>
       </c>
       <c r="P149" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -31108,7 +31114,7 @@
         <v>90</v>
       </c>
       <c r="P155" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31681,7 +31687,7 @@
         <v>90</v>
       </c>
       <c r="P158" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31771,7 +31777,7 @@
         <v>1.21</v>
       </c>
       <c r="AT158">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU158">
         <v>1.85</v>
@@ -31872,7 +31878,7 @@
         <v>182</v>
       </c>
       <c r="P159" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32445,7 +32451,7 @@
         <v>184</v>
       </c>
       <c r="P162" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32532,7 +32538,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT162">
         <v>0.79</v>
@@ -33209,7 +33215,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -34164,7 +34170,7 @@
         <v>90</v>
       </c>
       <c r="P171" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34636,7 +34642,7 @@
         <v>1.68</v>
       </c>
       <c r="AT173">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU173">
         <v>1.86</v>
@@ -34737,7 +34743,7 @@
         <v>90</v>
       </c>
       <c r="P174" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -35119,7 +35125,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q176">
         <v>8</v>
@@ -35501,7 +35507,7 @@
         <v>122</v>
       </c>
       <c r="P178" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -36265,7 +36271,7 @@
         <v>147</v>
       </c>
       <c r="P182" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q182">
         <v>2</v>
@@ -36456,7 +36462,7 @@
         <v>189</v>
       </c>
       <c r="P183" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q183">
         <v>2</v>
@@ -36838,7 +36844,7 @@
         <v>90</v>
       </c>
       <c r="P185" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -37029,7 +37035,7 @@
         <v>90</v>
       </c>
       <c r="P186" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -37307,7 +37313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS187">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT187">
         <v>0.65</v>
@@ -37984,7 +37990,7 @@
         <v>193</v>
       </c>
       <c r="P191" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -38644,7 +38650,7 @@
         <v>0.78</v>
       </c>
       <c r="AS194">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT194">
         <v>0.84</v>
@@ -38748,7 +38754,7 @@
         <v>196</v>
       </c>
       <c r="P195" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38939,7 +38945,7 @@
         <v>98</v>
       </c>
       <c r="P196" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -39130,7 +39136,7 @@
         <v>197</v>
       </c>
       <c r="P197" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -40175,7 +40181,7 @@
         <v>1.68</v>
       </c>
       <c r="AT202">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU202">
         <v>1.64</v>
@@ -40276,7 +40282,7 @@
         <v>203</v>
       </c>
       <c r="P203" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40467,7 +40473,7 @@
         <v>204</v>
       </c>
       <c r="P204" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -41804,7 +41810,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q211">
         <v>5</v>
@@ -42082,7 +42088,7 @@
         <v>1.2</v>
       </c>
       <c r="AS212">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT212">
         <v>1</v>
@@ -42759,7 +42765,7 @@
         <v>90</v>
       </c>
       <c r="P216" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q216">
         <v>3</v>
@@ -43523,7 +43529,7 @@
         <v>212</v>
       </c>
       <c r="P220" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q220">
         <v>12</v>
@@ -44287,7 +44293,7 @@
         <v>216</v>
       </c>
       <c r="P224" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44377,7 +44383,7 @@
         <v>1</v>
       </c>
       <c r="AT224">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU224">
         <v>1.59</v>
@@ -44860,7 +44866,7 @@
         <v>218</v>
       </c>
       <c r="P227" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q227">
         <v>7</v>
@@ -45242,7 +45248,7 @@
         <v>90</v>
       </c>
       <c r="P229" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -46006,7 +46012,7 @@
         <v>222</v>
       </c>
       <c r="P233" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q233">
         <v>4</v>
@@ -46388,7 +46394,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q235">
         <v>11</v>
@@ -46666,7 +46672,7 @@
         <v>1.27</v>
       </c>
       <c r="AS236">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT236">
         <v>0.89</v>
@@ -48107,7 +48113,7 @@
         <v>101</v>
       </c>
       <c r="P244" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q244">
         <v>6</v>
@@ -48489,7 +48495,7 @@
         <v>228</v>
       </c>
       <c r="P246" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q246">
         <v>8</v>
@@ -49444,7 +49450,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q251">
         <v>6</v>
@@ -49635,7 +49641,7 @@
         <v>232</v>
       </c>
       <c r="P252" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -49826,7 +49832,7 @@
         <v>233</v>
       </c>
       <c r="P253" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q253">
         <v>6</v>
@@ -50208,7 +50214,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q255">
         <v>10</v>
@@ -50298,7 +50304,7 @@
         <v>1.25</v>
       </c>
       <c r="AT255">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU255">
         <v>1.28</v>
@@ -50590,7 +50596,7 @@
         <v>235</v>
       </c>
       <c r="P257" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q257">
         <v>7</v>
@@ -50781,7 +50787,7 @@
         <v>236</v>
       </c>
       <c r="P258" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q258">
         <v>4</v>
@@ -52118,7 +52124,7 @@
         <v>90</v>
       </c>
       <c r="P265" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q265">
         <v>8</v>
@@ -52309,7 +52315,7 @@
         <v>90</v>
       </c>
       <c r="P266" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q266">
         <v>5</v>
@@ -52778,7 +52784,7 @@
         <v>1.77</v>
       </c>
       <c r="AS268">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT268">
         <v>1.68</v>
@@ -52882,7 +52888,7 @@
         <v>90</v>
       </c>
       <c r="P269" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q269">
         <v>9</v>
@@ -54219,7 +54225,7 @@
         <v>244</v>
       </c>
       <c r="P276" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q276">
         <v>6</v>
@@ -54983,7 +54989,7 @@
         <v>90</v>
       </c>
       <c r="P280" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q280">
         <v>7</v>
@@ -55073,7 +55079,7 @@
         <v>1.26</v>
       </c>
       <c r="AT280">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU280">
         <v>1.52</v>
@@ -55452,7 +55458,7 @@
         <v>1.57</v>
       </c>
       <c r="AS282">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT282">
         <v>1.21</v>
@@ -55556,7 +55562,7 @@
         <v>147</v>
       </c>
       <c r="P283" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -56129,7 +56135,7 @@
         <v>250</v>
       </c>
       <c r="P286" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q286">
         <v>4</v>
@@ -57084,7 +57090,7 @@
         <v>252</v>
       </c>
       <c r="P291" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q291">
         <v>7</v>
@@ -58039,7 +58045,7 @@
         <v>90</v>
       </c>
       <c r="P296" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q296">
         <v>6</v>
@@ -58230,7 +58236,7 @@
         <v>90</v>
       </c>
       <c r="P297" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q297">
         <v>5</v>
@@ -58612,7 +58618,7 @@
         <v>90</v>
       </c>
       <c r="P299" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q299">
         <v>6</v>
@@ -58893,7 +58899,7 @@
         <v>1.53</v>
       </c>
       <c r="AT300">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU300">
         <v>1.53</v>
@@ -59185,7 +59191,7 @@
         <v>256</v>
       </c>
       <c r="P302" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q302">
         <v>6</v>
@@ -59949,7 +59955,7 @@
         <v>198</v>
       </c>
       <c r="P306" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q306">
         <v>8</v>
@@ -60036,7 +60042,7 @@
         <v>1.79</v>
       </c>
       <c r="AS306">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT306">
         <v>1.5</v>
@@ -60140,7 +60146,7 @@
         <v>259</v>
       </c>
       <c r="P307" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q307">
         <v>4</v>
@@ -60904,7 +60910,7 @@
         <v>179</v>
       </c>
       <c r="P311" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q311">
         <v>10</v>
@@ -61095,7 +61101,7 @@
         <v>101</v>
       </c>
       <c r="P312" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -61477,7 +61483,7 @@
         <v>90</v>
       </c>
       <c r="P314" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q314">
         <v>5</v>
@@ -61949,7 +61955,7 @@
         <v>1.62</v>
       </c>
       <c r="AT316">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU316">
         <v>1.41</v>
@@ -62241,7 +62247,7 @@
         <v>263</v>
       </c>
       <c r="P318" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -63387,7 +63393,7 @@
         <v>265</v>
       </c>
       <c r="P324" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q324">
         <v>6</v>
@@ -63769,7 +63775,7 @@
         <v>267</v>
       </c>
       <c r="P326" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q326">
         <v>4</v>
@@ -64151,7 +64157,7 @@
         <v>268</v>
       </c>
       <c r="P328" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q328">
         <v>9</v>
@@ -64620,7 +64626,7 @@
         <v>1.75</v>
       </c>
       <c r="AS330">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT330">
         <v>1.84</v>
@@ -64915,7 +64921,7 @@
         <v>224</v>
       </c>
       <c r="P332" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q332">
         <v>7</v>
@@ -66443,7 +66449,7 @@
         <v>92</v>
       </c>
       <c r="P340" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q340">
         <v>2</v>
@@ -66634,7 +66640,7 @@
         <v>119</v>
       </c>
       <c r="P341" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q341">
         <v>2</v>
@@ -66724,7 +66730,7 @@
         <v>1.37</v>
       </c>
       <c r="AT341">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU341">
         <v>1.55</v>
@@ -67103,7 +67109,7 @@
         <v>0.82</v>
       </c>
       <c r="AS343">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT343">
         <v>0.74</v>
@@ -67971,7 +67977,7 @@
         <v>276</v>
       </c>
       <c r="P348" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q348">
         <v>7</v>
@@ -68735,7 +68741,7 @@
         <v>90</v>
       </c>
       <c r="P352" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q352">
         <v>8</v>
@@ -69308,7 +69314,7 @@
         <v>281</v>
       </c>
       <c r="P355" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q355">
         <v>3</v>
@@ -70162,7 +70168,7 @@
         <v>1.53</v>
       </c>
       <c r="AT359">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU359">
         <v>1.48</v>
@@ -70263,7 +70269,7 @@
         <v>285</v>
       </c>
       <c r="P360" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q360">
         <v>5</v>
@@ -70645,7 +70651,7 @@
         <v>90</v>
       </c>
       <c r="P362" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q362">
         <v>5</v>
@@ -71687,7 +71693,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS367">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT367">
         <v>0.89</v>
@@ -71982,7 +71988,7 @@
         <v>291</v>
       </c>
       <c r="P369" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q369">
         <v>6</v>
@@ -72173,7 +72179,7 @@
         <v>223</v>
       </c>
       <c r="P370" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q370">
         <v>3</v>
@@ -72364,7 +72370,7 @@
         <v>292</v>
       </c>
       <c r="P371" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q371">
         <v>4</v>
@@ -72746,7 +72752,7 @@
         <v>293</v>
       </c>
       <c r="P373" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q373">
         <v>6</v>
@@ -72937,7 +72943,7 @@
         <v>93</v>
       </c>
       <c r="P374" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q374">
         <v>10</v>
@@ -73128,7 +73134,7 @@
         <v>294</v>
       </c>
       <c r="P375" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q375">
         <v>8</v>
@@ -73892,7 +73898,7 @@
         <v>298</v>
       </c>
       <c r="P379" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q379">
         <v>7</v>
@@ -73982,7 +73988,7 @@
         <v>2.21</v>
       </c>
       <c r="AT379">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU379">
         <v>1.82</v>
@@ -74274,7 +74280,7 @@
         <v>299</v>
       </c>
       <c r="P381" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q381">
         <v>5</v>
@@ -74847,7 +74853,7 @@
         <v>300</v>
       </c>
       <c r="P384" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q384">
         <v>9</v>
@@ -74934,7 +74940,7 @@
         <v>1.29</v>
       </c>
       <c r="AS384">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AT384">
         <v>1.26</v>
@@ -75128,7 +75134,7 @@
         <v>1.56</v>
       </c>
       <c r="AT385">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AU385">
         <v>1.31</v>
@@ -75229,7 +75235,7 @@
         <v>301</v>
       </c>
       <c r="P386" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q386">
         <v>3</v>
@@ -75316,7 +75322,7 @@
         <v>1.61</v>
       </c>
       <c r="AS386">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AT386">
         <v>1.55</v>
@@ -75698,7 +75704,7 @@
         <v>1.6</v>
       </c>
       <c r="AS388">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AT388">
         <v>1.56</v>
@@ -75892,7 +75898,7 @@
         <v>1.55</v>
       </c>
       <c r="AT389">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AU389">
         <v>1.66</v>
@@ -75944,6 +75950,197 @@
       </c>
       <c r="BK389">
         <v>12</v>
+      </c>
+    </row>
+    <row r="390" spans="1:63">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>6330404</v>
+      </c>
+      <c r="C390" t="s">
+        <v>63</v>
+      </c>
+      <c r="D390" t="s">
+        <v>64</v>
+      </c>
+      <c r="E390" s="2">
+        <v>45085.64583333334</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+      <c r="G390" t="s">
+        <v>79</v>
+      </c>
+      <c r="H390" t="s">
+        <v>75</v>
+      </c>
+      <c r="I390">
+        <v>1</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>1</v>
+      </c>
+      <c r="L390">
+        <v>1</v>
+      </c>
+      <c r="M390">
+        <v>1</v>
+      </c>
+      <c r="N390">
+        <v>2</v>
+      </c>
+      <c r="O390" t="s">
+        <v>302</v>
+      </c>
+      <c r="P390" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q390">
+        <v>7</v>
+      </c>
+      <c r="R390">
+        <v>10</v>
+      </c>
+      <c r="S390">
+        <v>17</v>
+      </c>
+      <c r="T390">
+        <v>2.82</v>
+      </c>
+      <c r="U390">
+        <v>1.93</v>
+      </c>
+      <c r="V390">
+        <v>5.86</v>
+      </c>
+      <c r="W390">
+        <v>1.57</v>
+      </c>
+      <c r="X390">
+        <v>2.49</v>
+      </c>
+      <c r="Y390">
+        <v>3.4</v>
+      </c>
+      <c r="Z390">
+        <v>1.3</v>
+      </c>
+      <c r="AA390">
+        <v>10</v>
+      </c>
+      <c r="AB390">
+        <v>1.06</v>
+      </c>
+      <c r="AC390">
+        <v>1.84</v>
+      </c>
+      <c r="AD390">
+        <v>3.5</v>
+      </c>
+      <c r="AE390">
+        <v>4.44</v>
+      </c>
+      <c r="AF390">
+        <v>1.08</v>
+      </c>
+      <c r="AG390">
+        <v>9.1</v>
+      </c>
+      <c r="AH390">
+        <v>1.39</v>
+      </c>
+      <c r="AI390">
+        <v>3.03</v>
+      </c>
+      <c r="AJ390">
+        <v>2.25</v>
+      </c>
+      <c r="AK390">
+        <v>1.6</v>
+      </c>
+      <c r="AL390">
+        <v>2.05</v>
+      </c>
+      <c r="AM390">
+        <v>1.73</v>
+      </c>
+      <c r="AN390">
+        <v>1.19</v>
+      </c>
+      <c r="AO390">
+        <v>1.29</v>
+      </c>
+      <c r="AP390">
+        <v>2</v>
+      </c>
+      <c r="AQ390">
+        <v>1.63</v>
+      </c>
+      <c r="AR390">
+        <v>1.7</v>
+      </c>
+      <c r="AS390">
+        <v>1.62</v>
+      </c>
+      <c r="AT390">
+        <v>1.68</v>
+      </c>
+      <c r="AU390">
+        <v>1.75</v>
+      </c>
+      <c r="AV390">
+        <v>1.25</v>
+      </c>
+      <c r="AW390">
+        <v>3</v>
+      </c>
+      <c r="AX390">
+        <v>1.42</v>
+      </c>
+      <c r="AY390">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ390">
+        <v>3.56</v>
+      </c>
+      <c r="BA390">
+        <v>1.23</v>
+      </c>
+      <c r="BB390">
+        <v>1.43</v>
+      </c>
+      <c r="BC390">
+        <v>1.83</v>
+      </c>
+      <c r="BD390">
+        <v>2.3</v>
+      </c>
+      <c r="BE390">
+        <v>3.2</v>
+      </c>
+      <c r="BF390">
+        <v>4</v>
+      </c>
+      <c r="BG390">
+        <v>10</v>
+      </c>
+      <c r="BH390">
+        <v>7</v>
+      </c>
+      <c r="BI390">
+        <v>7</v>
+      </c>
+      <c r="BJ390">
+        <v>11</v>
+      </c>
+      <c r="BK390">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="424">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1647,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK390"/>
+  <dimension ref="A1:BK391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2363,7 +2363,7 @@
         <v>1.63</v>
       </c>
       <c r="AT4">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT12">
         <v>0.89</v>
@@ -5801,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU22">
         <v>1.87</v>
@@ -8281,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT35">
         <v>1</v>
@@ -10385,7 +10385,7 @@
         <v>0.95</v>
       </c>
       <c r="AT46">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU46">
         <v>1.53</v>
@@ -14775,7 +14775,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT69">
         <v>0.8</v>
@@ -15351,7 +15351,7 @@
         <v>2.21</v>
       </c>
       <c r="AT72">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU72">
         <v>1.83</v>
@@ -18786,7 +18786,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT90">
         <v>1.21</v>
@@ -20890,7 +20890,7 @@
         <v>1.26</v>
       </c>
       <c r="AT101">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU101">
         <v>1.47</v>
@@ -21078,7 +21078,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT102">
         <v>0.74</v>
@@ -22991,7 +22991,7 @@
         <v>1.62</v>
       </c>
       <c r="AT112">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU112">
         <v>1.3</v>
@@ -26235,7 +26235,7 @@
         <v>1.67</v>
       </c>
       <c r="AS129">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT129">
         <v>1.5</v>
@@ -27766,7 +27766,7 @@
         <v>2.37</v>
       </c>
       <c r="AT137">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU137">
         <v>1.92</v>
@@ -29482,7 +29482,7 @@
         <v>1</v>
       </c>
       <c r="AS146">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT146">
         <v>1.11</v>
@@ -30631,7 +30631,7 @@
         <v>1.53</v>
       </c>
       <c r="AT152">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU152">
         <v>1.46</v>
@@ -33875,7 +33875,7 @@
         <v>1.25</v>
       </c>
       <c r="AS169">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT169">
         <v>1</v>
@@ -35788,7 +35788,7 @@
         <v>1.68</v>
       </c>
       <c r="AT179">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU179">
         <v>1.61</v>
@@ -38077,7 +38077,7 @@
         <v>1.78</v>
       </c>
       <c r="AS191">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT191">
         <v>1.68</v>
@@ -38459,7 +38459,7 @@
         <v>1.22</v>
       </c>
       <c r="AS193">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT193">
         <v>1.3</v>
@@ -41709,7 +41709,7 @@
         <v>1.21</v>
       </c>
       <c r="AT210">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU210">
         <v>1.87</v>
@@ -42852,7 +42852,7 @@
         <v>0.73</v>
       </c>
       <c r="AS216">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT216">
         <v>0.79</v>
@@ -44001,7 +44001,7 @@
         <v>1.53</v>
       </c>
       <c r="AT222">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU222">
         <v>1.66</v>
@@ -47627,7 +47627,7 @@
         <v>0.55</v>
       </c>
       <c r="AS241">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT241">
         <v>0.65</v>
@@ -49346,10 +49346,10 @@
         <v>0.73</v>
       </c>
       <c r="AS250">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT250">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU250">
         <v>1.82</v>
@@ -50113,7 +50113,7 @@
         <v>1.37</v>
       </c>
       <c r="AT254">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU254">
         <v>1.52</v>
@@ -53166,7 +53166,7 @@
         <v>1.33</v>
       </c>
       <c r="AS270">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT270">
         <v>1.15</v>
@@ -54888,7 +54888,7 @@
         <v>1.25</v>
       </c>
       <c r="AT279">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU279">
         <v>1.35</v>
@@ -56604,7 +56604,7 @@
         <v>1.86</v>
       </c>
       <c r="AS288">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT288">
         <v>1.84</v>
@@ -58708,7 +58708,7 @@
         <v>1.68</v>
       </c>
       <c r="AT299">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU299">
         <v>1.79</v>
@@ -60424,7 +60424,7 @@
         <v>1.07</v>
       </c>
       <c r="AS308">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT308">
         <v>0.89</v>
@@ -62719,7 +62719,7 @@
         <v>1.37</v>
       </c>
       <c r="AT320">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU320">
         <v>1.56</v>
@@ -64244,7 +64244,7 @@
         <v>0.88</v>
       </c>
       <c r="AS328">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT328">
         <v>0.84</v>
@@ -65775,7 +65775,7 @@
         <v>1.8</v>
       </c>
       <c r="AT336">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU336">
         <v>1.68</v>
@@ -67682,7 +67682,7 @@
         <v>1.06</v>
       </c>
       <c r="AS346">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT346">
         <v>1.05</v>
@@ -68831,7 +68831,7 @@
         <v>1.26</v>
       </c>
       <c r="AT352">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU352">
         <v>1.54</v>
@@ -71120,7 +71120,7 @@
         <v>1.28</v>
       </c>
       <c r="AS364">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AT364">
         <v>1.15</v>
@@ -74179,7 +74179,7 @@
         <v>1.55</v>
       </c>
       <c r="AT380">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU380">
         <v>1.43</v>
@@ -74940,7 +74940,7 @@
         <v>1.29</v>
       </c>
       <c r="AS384">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT384">
         <v>1.26</v>
@@ -75134,7 +75134,7 @@
         <v>1.56</v>
       </c>
       <c r="AT385">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="AU385">
         <v>1.31</v>
@@ -75322,7 +75322,7 @@
         <v>1.61</v>
       </c>
       <c r="AS386">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT386">
         <v>1.55</v>
@@ -75704,7 +75704,7 @@
         <v>1.6</v>
       </c>
       <c r="AS388">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="AT388">
         <v>1.56</v>
@@ -75898,7 +75898,7 @@
         <v>1.55</v>
       </c>
       <c r="AT389">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AU389">
         <v>1.66</v>
@@ -76086,10 +76086,10 @@
         <v>1.7</v>
       </c>
       <c r="AS390">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT390">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="AU390">
         <v>1.75</v>
@@ -76141,6 +76141,197 @@
       </c>
       <c r="BK390">
         <v>17</v>
+      </c>
+    </row>
+    <row r="391" spans="1:63">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>6330405</v>
+      </c>
+      <c r="C391" t="s">
+        <v>63</v>
+      </c>
+      <c r="D391" t="s">
+        <v>64</v>
+      </c>
+      <c r="E391" s="2">
+        <v>45088.64583333334</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391" t="s">
+        <v>75</v>
+      </c>
+      <c r="H391" t="s">
+        <v>79</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>0</v>
+      </c>
+      <c r="M391">
+        <v>1</v>
+      </c>
+      <c r="N391">
+        <v>1</v>
+      </c>
+      <c r="O391" t="s">
+        <v>90</v>
+      </c>
+      <c r="P391" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q391">
+        <v>3</v>
+      </c>
+      <c r="R391">
+        <v>9</v>
+      </c>
+      <c r="S391">
+        <v>12</v>
+      </c>
+      <c r="T391">
+        <v>3.15</v>
+      </c>
+      <c r="U391">
+        <v>2.02</v>
+      </c>
+      <c r="V391">
+        <v>3.56</v>
+      </c>
+      <c r="W391">
+        <v>1.47</v>
+      </c>
+      <c r="X391">
+        <v>2.58</v>
+      </c>
+      <c r="Y391">
+        <v>3.16</v>
+      </c>
+      <c r="Z391">
+        <v>1.33</v>
+      </c>
+      <c r="AA391">
+        <v>8.5</v>
+      </c>
+      <c r="AB391">
+        <v>1.05</v>
+      </c>
+      <c r="AC391">
+        <v>2.45</v>
+      </c>
+      <c r="AD391">
+        <v>3.1</v>
+      </c>
+      <c r="AE391">
+        <v>2.9</v>
+      </c>
+      <c r="AF391">
+        <v>1.04</v>
+      </c>
+      <c r="AG391">
+        <v>7.6</v>
+      </c>
+      <c r="AH391">
+        <v>1.37</v>
+      </c>
+      <c r="AI391">
+        <v>2.79</v>
+      </c>
+      <c r="AJ391">
+        <v>2.2</v>
+      </c>
+      <c r="AK391">
+        <v>1.64</v>
+      </c>
+      <c r="AL391">
+        <v>1.89</v>
+      </c>
+      <c r="AM391">
+        <v>1.85</v>
+      </c>
+      <c r="AN391">
+        <v>1.42</v>
+      </c>
+      <c r="AO391">
+        <v>1.34</v>
+      </c>
+      <c r="AP391">
+        <v>1.52</v>
+      </c>
+      <c r="AQ391">
+        <v>1.68</v>
+      </c>
+      <c r="AR391">
+        <v>1.62</v>
+      </c>
+      <c r="AS391">
+        <v>1.64</v>
+      </c>
+      <c r="AT391">
+        <v>1.65</v>
+      </c>
+      <c r="AU391">
+        <v>1.61</v>
+      </c>
+      <c r="AV391">
+        <v>1.5</v>
+      </c>
+      <c r="AW391">
+        <v>3.11</v>
+      </c>
+      <c r="AX391">
+        <v>1.9</v>
+      </c>
+      <c r="AY391">
+        <v>9</v>
+      </c>
+      <c r="AZ391">
+        <v>2.19</v>
+      </c>
+      <c r="BA391">
+        <v>1.19</v>
+      </c>
+      <c r="BB391">
+        <v>1.43</v>
+      </c>
+      <c r="BC391">
+        <v>1.72</v>
+      </c>
+      <c r="BD391">
+        <v>2.12</v>
+      </c>
+      <c r="BE391">
+        <v>2.63</v>
+      </c>
+      <c r="BF391">
+        <v>2</v>
+      </c>
+      <c r="BG391">
+        <v>9</v>
+      </c>
+      <c r="BH391">
+        <v>2</v>
+      </c>
+      <c r="BI391">
+        <v>5</v>
+      </c>
+      <c r="BJ391">
+        <v>4</v>
+      </c>
+      <c r="BK391">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -76322,13 +76322,13 @@
         <v>9</v>
       </c>
       <c r="BH391">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI391">
         <v>5</v>
       </c>
       <c r="BJ391">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BK391">
         <v>14</v>
